--- a/Code/Results/Cases/Case_4_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.443831819722163</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.4820898134628067</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2000026777958084</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03548403544149359</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007949351810704862</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,33 +451,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3253107678589799</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>8.998589187697689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2.963070009966941</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.4074760020112649</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1711997274692436</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.03324310849177259</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0008092967645083516</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -486,33 +498,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2839992592601988</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>7.896122203253128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2.680219667809183</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.363541679784845</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1540679821975317</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.03191889324955355</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008182243007231749</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -527,33 +545,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2595885953767976</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.240127357840834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.567604817571748</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.3460265159739322</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1472031298149972</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.03139001352053761</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008218964615166312</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -568,33 +592,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2498472390736595</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>6.977188090877377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.549053125878345</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.3431393733179107</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1460696557904839</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.03130278277984999</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008225084580138614</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -609,33 +639,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2482412423721172</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>6.933768574093705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.6786907326088</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.3633039934563271</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1539749565426831</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.03191171981768193</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008182736785515905</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -650,33 +686,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2594564266758255</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7.236564590379743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3.275209431278824</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.4559182389901082</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1899418764461842</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.03469915948777924</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007998686000018492</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -691,33 +733,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.310846454149555</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>8.613547512734186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>4.567608040841549</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.6570668736206642</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2660913536473686</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.04069949054511746</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007642889099441908</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -732,33 +780,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4210298751930424</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11.52729189967235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5.635254272370844</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.8249786415083804</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3276006799457321</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0456527352077547</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007378423024788366</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -773,33 +827,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5108995444933413</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13.88072319387467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>6.15988768744694</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.9083001525339114</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3574387891363671</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.04809244217250175</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.000725557085634746</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -814,33 +874,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5546822433671394</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>15.02256724845449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6.365666215657768</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.9411455997124278</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.3690778951395259</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.04905094594449722</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007208472356846709</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -855,33 +921,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5717869612849142</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>15.46802279591805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6.321003001412294</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.934008523336388</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.3665546917390259</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.04884282376316307</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007218645549198664</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -896,33 +968,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5680777441127418</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>15.37145132999404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>6.176664463458053</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.9109744272594185</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3583890373837022</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.04817055125649716</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007251709023883084</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -937,33 +1015,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5560782055373039</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>15.05893430898794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>6.089231292200964</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.8970441235407236</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.3534341425037582</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.04776354857917831</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007271878925376274</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -978,33 +1062,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5488002558900575</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14.86930711001003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>5.601871696307512</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.8196963335397811</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3256938543732417</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.04549766469944849</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007386383744053514</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1019,33 +1109,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5081051909547512</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.8077584650847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>5.313817812700336</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.7742075405116395</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3091977502546399</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.04416026503073667</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007455843968909093</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1060,33 +1156,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4839511455619174</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>13.17655831771921</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>5.15169269731598</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.7486747170769092</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2998790975492369</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.04340799958536401</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007495571530392975</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1101,33 +1203,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4703234966479215</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.82000963088097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>5.097371224680217</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.7401304704908682</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2967511546535775</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.04315600713556478</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007508989636158287</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1142,33 +1250,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4657521058653344</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>12.70033104151699</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5.344104013321441</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.778982709456443</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3109357829227122</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.04430082745121489</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.00074484743533844</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1183,33 +1297,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4864942549731239</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.24305983074373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>6.218852958823277</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.9177021879053484</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.3607775731133245</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.04836699959562196</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007242015123753493</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1224,33 +1344,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5595874945540942</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>15.15034711686707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>6.833057948961027</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.016112687223028</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.395384822046509</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.0512319417433531</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007103571941987893</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1265,33 +1391,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.6104938627227909</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>16.47496997212306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>6.500732367211697</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.9627567366281653</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.3766982901698839</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.04968062445951027</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007177869680666053</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1306,33 +1438,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5829929434690513</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>15.75969005721669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>5.330400887436781</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.7768219476563729</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3101495090773341</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.04423722795949381</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007451806782610897</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1347,33 +1485,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.48534371672406</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13.21297496059731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4.200942316397231</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.5998243342008038</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2446958807816486</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.03899940653848155</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007739153475566996</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1388,10 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.389926610128569</v>
       </c>
       <c r="M25">
         <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10.70871333190462</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.443831819722163</v>
+        <v>0.84685528798002</v>
       </c>
       <c r="C2">
-        <v>0.4820898134628067</v>
+        <v>0.09212552363410964</v>
       </c>
       <c r="D2">
-        <v>0.2000026777958084</v>
+        <v>0.2551238319650651</v>
       </c>
       <c r="E2">
-        <v>0.03548403544149359</v>
+        <v>0.05685386023468197</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007949351810704862</v>
+        <v>2.247450124535931</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.418586432879295</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.619564545080586</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02378744656939613</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8173947356072233</v>
       </c>
       <c r="L2">
-        <v>0.3253107678589799</v>
+        <v>0.2504750359216743</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2242754656847872</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.998589187697689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.963070009966941</v>
+        <v>0.7448155625138497</v>
       </c>
       <c r="C3">
-        <v>0.4074760020112649</v>
+        <v>0.08010764301739925</v>
       </c>
       <c r="D3">
-        <v>0.1711997274692436</v>
+        <v>0.2407644292758704</v>
       </c>
       <c r="E3">
-        <v>0.03324310849177259</v>
+        <v>0.05607935456989566</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008092967645083516</v>
+        <v>2.160142672957278</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.3855914778255</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.578186427837089</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02323192901094462</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7125678605007408</v>
       </c>
       <c r="L3">
-        <v>0.2839992592601988</v>
+        <v>0.2359131500724985</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2018693235787445</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.896122203253128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.680219667809183</v>
+        <v>0.6830612224228503</v>
       </c>
       <c r="C4">
-        <v>0.363541679784845</v>
+        <v>0.0727877231332883</v>
       </c>
       <c r="D4">
-        <v>0.1540679821975317</v>
+        <v>0.2322443970764851</v>
       </c>
       <c r="E4">
-        <v>0.03191889324955355</v>
+        <v>0.05565044007641085</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008182243007231749</v>
+        <v>2.109062593194025</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.366731142966586</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.55439351020128</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02288898155533747</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6490293809694379</v>
       </c>
       <c r="L4">
-        <v>0.2595885953767976</v>
+        <v>0.2272728984298809</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1883818936773558</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.240127357840834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.567604817571748</v>
+        <v>0.6581009840252818</v>
       </c>
       <c r="C5">
-        <v>0.3460265159739322</v>
+        <v>0.06981670492305625</v>
       </c>
       <c r="D5">
-        <v>0.1472031298149972</v>
+        <v>0.2288430003949742</v>
       </c>
       <c r="E5">
-        <v>0.03139001352053761</v>
+        <v>0.05548703283507805</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008218964615166312</v>
+        <v>2.08884611861852</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.359380544533948</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.545083186144623</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.02274863074692846</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6233224816014058</v>
       </c>
       <c r="L5">
-        <v>0.2498472390736595</v>
+        <v>0.223823377698622</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1829484868899236</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.977188090877377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.549053125878345</v>
+        <v>0.653968164007722</v>
       </c>
       <c r="C6">
-        <v>0.3431393733179107</v>
+        <v>0.06932400614972778</v>
       </c>
       <c r="D6">
-        <v>0.1460696557904839</v>
+        <v>0.2282823512634877</v>
       </c>
       <c r="E6">
-        <v>0.03130278277984999</v>
+        <v>0.0554605766718641</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008225084580138614</v>
+        <v>2.085524349238</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.358179759602606</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.543559928009891</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.02272528591761436</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6190644584174976</v>
       </c>
       <c r="L6">
-        <v>0.2482412423721172</v>
+        <v>0.2232547853844835</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1820499263738959</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.933768574093705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.6786907326088</v>
+        <v>0.6827237957491548</v>
       </c>
       <c r="C7">
-        <v>0.3633039934563271</v>
+        <v>0.07274761049029621</v>
       </c>
       <c r="D7">
-        <v>0.1539749565426831</v>
+        <v>0.2321982439917605</v>
       </c>
       <c r="E7">
-        <v>0.03191171981768193</v>
+        <v>0.05564819068070115</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008182736785515905</v>
+        <v>2.108787567589943</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.366630674414296</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.554266412944031</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.02288709131763422</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6486819656170439</v>
       </c>
       <c r="L7">
-        <v>0.2594564266758255</v>
+        <v>0.2272260930273973</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1883083689277925</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.236564590379743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.275209431278824</v>
+        <v>0.8114725712010227</v>
       </c>
       <c r="C8">
-        <v>0.4559182389901082</v>
+        <v>0.08796764792271006</v>
       </c>
       <c r="D8">
-        <v>0.1899418764461842</v>
+        <v>0.2501086284585909</v>
       </c>
       <c r="E8">
-        <v>0.03469915948777924</v>
+        <v>0.05657691518791452</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007998686000018492</v>
+        <v>2.216799406532317</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.406909163487427</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.604949933428756</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.02359620854917477</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.781065312801104</v>
       </c>
       <c r="L8">
-        <v>0.310846454149555</v>
+        <v>0.2453890586788674</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2164906237358295</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.613547512734186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.567608040841549</v>
+        <v>1.072095893306113</v>
       </c>
       <c r="C9">
-        <v>0.6570668736206642</v>
+        <v>0.1184280391912012</v>
       </c>
       <c r="D9">
-        <v>0.2660913536473686</v>
+        <v>0.2877811533397363</v>
       </c>
       <c r="E9">
-        <v>0.04069949054511746</v>
+        <v>0.05878513247026618</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007642889099441908</v>
+        <v>2.450431619874593</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.497800141537539</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.71812536755354</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.02497842982793941</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.048301737368234</v>
       </c>
       <c r="L9">
-        <v>0.4210298751930424</v>
+        <v>0.2835979242746021</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2741468584304201</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.52729189967235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.635254272370844</v>
+        <v>1.270090435721073</v>
       </c>
       <c r="C10">
-        <v>0.8249786415083804</v>
+        <v>0.1414023407336913</v>
       </c>
       <c r="D10">
-        <v>0.3276006799457321</v>
+        <v>0.3173103995080311</v>
       </c>
       <c r="E10">
-        <v>0.0456527352077547</v>
+        <v>0.06066906316004683</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007378423024788366</v>
+        <v>2.638057852214359</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.57305457699843</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.811163467259234</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.02599860039924629</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.250938170546107</v>
       </c>
       <c r="L10">
-        <v>0.5108995444933413</v>
+        <v>0.3135596291621852</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3183413976540734</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.88072319387467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.15988768744694</v>
+        <v>1.361956996886533</v>
       </c>
       <c r="C11">
-        <v>0.9083001525339114</v>
+        <v>0.1520376503134031</v>
       </c>
       <c r="D11">
-        <v>0.3574387891363671</v>
+        <v>0.3312183017390424</v>
       </c>
       <c r="E11">
-        <v>0.04809244217250175</v>
+        <v>0.06158915560702916</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000725557085634746</v>
+        <v>2.727537170538454</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.609428968688917</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.855998936715366</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0264661310872949</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.34489357934649</v>
       </c>
       <c r="L11">
-        <v>0.5546822433671394</v>
+        <v>0.3276761104489054</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3389372619902531</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.02256724845449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.365666215657768</v>
+        <v>1.397037483366489</v>
       </c>
       <c r="C12">
-        <v>0.9411455997124278</v>
+        <v>0.1560964621613437</v>
       </c>
       <c r="D12">
-        <v>0.3690778951395259</v>
+        <v>0.3365597205918647</v>
       </c>
       <c r="E12">
-        <v>0.04905094594449722</v>
+        <v>0.06194720998755443</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007208472356846709</v>
+        <v>2.762073994661392</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.623538191456817</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.873371389476546</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.02664389263618538</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.380764059127046</v>
       </c>
       <c r="L12">
-        <v>0.5717869612849142</v>
+        <v>0.333098556637637</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3468154609734739</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.46802279591805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.321003001412294</v>
+        <v>1.389468682469243</v>
       </c>
       <c r="C13">
-        <v>0.934008523336388</v>
+        <v>0.1552208413144029</v>
       </c>
       <c r="D13">
-        <v>0.3665546917390259</v>
+        <v>0.3354059139553556</v>
       </c>
       <c r="E13">
-        <v>0.04884282376316307</v>
+        <v>0.06186965851978243</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007218645549198664</v>
+        <v>2.754605826045889</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.620484157407162</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.869611829131472</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02660557280573528</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.373025125102629</v>
       </c>
       <c r="L13">
-        <v>0.5680777441127418</v>
+        <v>0.3319272025750877</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3451150961972189</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.37145132999404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.176664463458053</v>
+        <v>1.364837018800671</v>
       </c>
       <c r="C14">
-        <v>0.9109744272594185</v>
+        <v>0.152370910702686</v>
       </c>
       <c r="D14">
-        <v>0.3583890373837022</v>
+        <v>0.3316562050735428</v>
       </c>
       <c r="E14">
-        <v>0.04817055125649716</v>
+        <v>0.06161841644137311</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007251709023883084</v>
+        <v>2.730365089699035</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.610582863736681</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.857420077945861</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02648073989951172</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.347838600816743</v>
       </c>
       <c r="L14">
-        <v>0.5560782055373039</v>
+        <v>0.3281206369063625</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.339583772738294</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.05893430898794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.089231292200964</v>
+        <v>1.349788585392929</v>
       </c>
       <c r="C15">
-        <v>0.8970441235407236</v>
+        <v>0.1506294974087723</v>
       </c>
       <c r="D15">
-        <v>0.3534341425037582</v>
+        <v>0.3293693440384402</v>
       </c>
       <c r="E15">
-        <v>0.04776354857917831</v>
+        <v>0.06146579580721756</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007271878925376274</v>
+        <v>2.715603829662712</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.604562515994672</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.850004650445243</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02640437658842032</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.33245023948362</v>
       </c>
       <c r="L15">
-        <v>0.5488002558900575</v>
+        <v>0.3257992263224736</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3362062240404953</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.86930711001003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.601871696307512</v>
+        <v>1.2641257609246</v>
       </c>
       <c r="C16">
-        <v>0.8196963335397811</v>
+        <v>0.1407114180863687</v>
       </c>
       <c r="D16">
-        <v>0.3256938543732417</v>
+        <v>0.3164115849813953</v>
       </c>
       <c r="E16">
-        <v>0.04549766469944849</v>
+        <v>0.06061024945313775</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007386383744053514</v>
+        <v>2.632298179106186</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.570722770943632</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.808286665942916</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02596813403863329</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.244836714643185</v>
       </c>
       <c r="L16">
-        <v>0.5081051909547512</v>
+        <v>0.3126474499415366</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3170059938821908</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.8077584650847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.313817812700336</v>
+        <v>1.21205815974119</v>
       </c>
       <c r="C17">
-        <v>0.7742075405116395</v>
+        <v>0.1346775560738251</v>
       </c>
       <c r="D17">
-        <v>0.3091977502546399</v>
+        <v>0.3085885063462399</v>
       </c>
       <c r="E17">
-        <v>0.04416026503073667</v>
+        <v>0.06010194267403435</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007455843968909093</v>
+        <v>2.582290575597284</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.550530065656346</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.783359978153811</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02570154782623746</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.191568126847102</v>
       </c>
       <c r="L17">
-        <v>0.4839511455619174</v>
+        <v>0.3047086107749948</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3053588504646143</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.17655831771921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.15169269731598</v>
+        <v>1.182277258830908</v>
       </c>
       <c r="C18">
-        <v>0.7486747170769092</v>
+        <v>0.131224050142464</v>
       </c>
       <c r="D18">
-        <v>0.2998790975492369</v>
+        <v>0.3041331562013312</v>
       </c>
       <c r="E18">
-        <v>0.04340799958536401</v>
+        <v>0.05981547916187324</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007495571530392975</v>
+        <v>2.553912131797773</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.53911548725543</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.769257100059079</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02554852468123592</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.161094157440459</v>
       </c>
       <c r="L18">
-        <v>0.4703234966479215</v>
+        <v>0.300187770984266</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.29870544832972</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.82000963088097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.097371224680217</v>
+        <v>1.17222165207906</v>
       </c>
       <c r="C19">
-        <v>0.7401304704908682</v>
+        <v>0.1300575306043044</v>
       </c>
       <c r="D19">
-        <v>0.2967511546535775</v>
+        <v>0.3026320668299718</v>
       </c>
       <c r="E19">
-        <v>0.04315600713556478</v>
+        <v>0.05971948466006083</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007508989636158287</v>
+        <v>2.544368009798006</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.535284222554225</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.76452138988401</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02549676055289396</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.150803430675126</v>
       </c>
       <c r="L19">
-        <v>0.4657521058653344</v>
+        <v>0.2986646860121311</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2964603332043509</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.70033104151699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.344104013321441</v>
+        <v>1.217583323158465</v>
       </c>
       <c r="C20">
-        <v>0.778982709456443</v>
+        <v>0.1353180758708845</v>
       </c>
       <c r="D20">
-        <v>0.3109357829227122</v>
+        <v>0.3094166585081126</v>
       </c>
       <c r="E20">
-        <v>0.04430082745121489</v>
+        <v>0.06015543812610247</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00074484743533844</v>
+        <v>2.587573751339278</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.552658753032489</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.785988988426155</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02572989274462323</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.197221358986582</v>
       </c>
       <c r="L20">
-        <v>0.4864942549731239</v>
+        <v>0.305548970433378</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3065939184185495</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.24305983074373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.218852958823277</v>
+        <v>1.372063706828328</v>
       </c>
       <c r="C21">
-        <v>0.9177021879053484</v>
+        <v>0.1532071088403626</v>
       </c>
       <c r="D21">
-        <v>0.3607775731133245</v>
+        <v>0.3327555007201681</v>
       </c>
       <c r="E21">
-        <v>0.04836699959562196</v>
+        <v>0.06169194608675355</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007242015123753493</v>
+        <v>2.737466959666648</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.613481791895993</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.860990113270489</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.0265173849886029</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.355228272913308</v>
       </c>
       <c r="L21">
-        <v>0.5595874945540942</v>
+        <v>0.3292365744002126</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3412062426968703</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.15034711686707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.833057948961027</v>
+        <v>1.474749279261658</v>
       </c>
       <c r="C22">
-        <v>1.016112687223028</v>
+        <v>0.1650846121050051</v>
       </c>
       <c r="D22">
-        <v>0.395384822046509</v>
+        <v>0.3484482124659536</v>
       </c>
       <c r="E22">
-        <v>0.0512319417433531</v>
+        <v>0.06275260352769152</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007103571941987893</v>
+        <v>2.839268362845957</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.655200454087094</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.912323138468622</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02703636050310898</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.460213998728875</v>
       </c>
       <c r="L22">
-        <v>0.6104938627227909</v>
+        <v>0.3451693208795632</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3642922428348925</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.47496997212306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.500732367211697</v>
+        <v>1.419774240388165</v>
       </c>
       <c r="C23">
-        <v>0.9627567366281653</v>
+        <v>0.1587265766072363</v>
       </c>
       <c r="D23">
-        <v>0.3766982901698839</v>
+        <v>0.3400302045058936</v>
       </c>
       <c r="E23">
-        <v>0.04968062445951027</v>
+        <v>0.06218114491445803</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007177869680666053</v>
+        <v>2.784562799898282</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.632744758356012</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.884702158492487</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02675890037535389</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.404010933638403</v>
       </c>
       <c r="L23">
-        <v>0.5829929434690513</v>
+        <v>0.3366219708555036</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3519253288406006</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.75969005721669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.330400887436781</v>
+        <v>1.215084921332846</v>
       </c>
       <c r="C24">
-        <v>0.7768219476563729</v>
+        <v>0.1350284491424816</v>
       </c>
       <c r="D24">
-        <v>0.3101495090773341</v>
+        <v>0.3090421198259889</v>
       </c>
       <c r="E24">
-        <v>0.04423722795949381</v>
+        <v>0.06013123490563466</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007451806782610897</v>
+        <v>2.585184074584078</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.551695769742963</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.784799705774176</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02571707727345895</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.194665065574867</v>
       </c>
       <c r="L24">
-        <v>0.48534371672406</v>
+        <v>0.3051689094575494</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.306035411827601</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.21297496059731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.200942316397231</v>
+        <v>1.000565961207684</v>
       </c>
       <c r="C25">
-        <v>0.5998243342008038</v>
+        <v>0.1101003290533669</v>
       </c>
       <c r="D25">
-        <v>0.2446958807816486</v>
+        <v>0.2772875046702268</v>
       </c>
       <c r="E25">
-        <v>0.03899940653848155</v>
+        <v>0.05814379634258948</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007739153475566996</v>
+        <v>2.384628815007403</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.471817341308565</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.685886601642807</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.0246044435458348</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9750284109118752</v>
       </c>
       <c r="L25">
-        <v>0.389926610128569</v>
+        <v>0.272953507251998</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2582562840643909</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.70871333190462</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.84685528798002</v>
+        <v>0.9674232357537278</v>
       </c>
       <c r="C2">
-        <v>0.09212552363410964</v>
+        <v>0.02652015634538429</v>
       </c>
       <c r="D2">
-        <v>0.2551238319650651</v>
+        <v>0.4836885644257904</v>
       </c>
       <c r="E2">
-        <v>0.05685386023468197</v>
+        <v>0.140874175409694</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.247450124535931</v>
+        <v>3.31850504664871</v>
       </c>
       <c r="H2">
-        <v>1.418586432879295</v>
+        <v>2.541122826129453</v>
       </c>
       <c r="I2">
-        <v>1.619564545080586</v>
+        <v>2.653312996810925</v>
       </c>
       <c r="J2">
-        <v>0.02378744656939613</v>
+        <v>0.04469241048186845</v>
       </c>
       <c r="K2">
-        <v>0.8173947356072233</v>
+        <v>0.7108777566345452</v>
       </c>
       <c r="L2">
-        <v>0.2504750359216743</v>
+        <v>0.4937449865969512</v>
       </c>
       <c r="M2">
-        <v>0.2242754656847872</v>
+        <v>0.3380502029213126</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7448155625138497</v>
+        <v>0.948490943294928</v>
       </c>
       <c r="C3">
-        <v>0.08010764301739925</v>
+        <v>0.02306945084059464</v>
       </c>
       <c r="D3">
-        <v>0.2407644292758704</v>
+        <v>0.4823460318738313</v>
       </c>
       <c r="E3">
-        <v>0.05607935456989566</v>
+        <v>0.141167447855354</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.160142672957278</v>
+        <v>3.304011144735313</v>
       </c>
       <c r="H3">
-        <v>1.3855914778255</v>
+        <v>2.53938946116665</v>
       </c>
       <c r="I3">
-        <v>1.578186427837089</v>
+        <v>2.648699091044705</v>
       </c>
       <c r="J3">
-        <v>0.02323192901094462</v>
+        <v>0.04443800808326692</v>
       </c>
       <c r="K3">
-        <v>0.7125678605007408</v>
+        <v>0.6890351506519892</v>
       </c>
       <c r="L3">
-        <v>0.2359131500724985</v>
+        <v>0.4925533177422139</v>
       </c>
       <c r="M3">
-        <v>0.2018693235787445</v>
+        <v>0.3345736557077501</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6830612224228503</v>
+        <v>0.9374549143786339</v>
       </c>
       <c r="C4">
-        <v>0.0727877231332883</v>
+        <v>0.02094865460186668</v>
       </c>
       <c r="D4">
-        <v>0.2322443970764851</v>
+        <v>0.4817031203875644</v>
       </c>
       <c r="E4">
-        <v>0.05565044007641085</v>
+        <v>0.1413808585952143</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.109062593194025</v>
+        <v>3.29616892731346</v>
       </c>
       <c r="H4">
-        <v>1.366731142966586</v>
+        <v>2.539010491534583</v>
       </c>
       <c r="I4">
-        <v>1.55439351020128</v>
+        <v>2.646589606297553</v>
       </c>
       <c r="J4">
-        <v>0.02288898155533747</v>
+        <v>0.0442765879519289</v>
       </c>
       <c r="K4">
-        <v>0.6490293809694379</v>
+        <v>0.6760907118538171</v>
       </c>
       <c r="L4">
-        <v>0.2272728984298809</v>
+        <v>0.4920106786794207</v>
       </c>
       <c r="M4">
-        <v>0.1883818936773558</v>
+        <v>0.3326134758638268</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6581009840252818</v>
+        <v>0.9331059895148428</v>
       </c>
       <c r="C5">
-        <v>0.06981670492305625</v>
+        <v>0.02008386078982483</v>
       </c>
       <c r="D5">
-        <v>0.2288430003949742</v>
+        <v>0.4814868281941926</v>
       </c>
       <c r="E5">
-        <v>0.05548703283507805</v>
+        <v>0.1414762281189308</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.08884611861852</v>
+        <v>3.293238980031845</v>
       </c>
       <c r="H5">
-        <v>1.359380544533948</v>
+        <v>2.539028522026655</v>
       </c>
       <c r="I5">
-        <v>1.545083186144623</v>
+        <v>2.645911966211514</v>
       </c>
       <c r="J5">
-        <v>0.02274863074692846</v>
+        <v>0.04420949075159708</v>
       </c>
       <c r="K5">
-        <v>0.6233224816014058</v>
+        <v>0.6709334115983268</v>
       </c>
       <c r="L5">
-        <v>0.223823377698622</v>
+        <v>0.4918371733774904</v>
       </c>
       <c r="M5">
-        <v>0.1829484868899236</v>
+        <v>0.3318586453507777</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.653968164007722</v>
+        <v>0.9323928245948139</v>
       </c>
       <c r="C6">
-        <v>0.06932400614972778</v>
+        <v>0.01994022802082895</v>
       </c>
       <c r="D6">
-        <v>0.2282823512634877</v>
+        <v>0.481453675621907</v>
       </c>
       <c r="E6">
-        <v>0.0554605766718641</v>
+        <v>0.1414925722380129</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.085524349238</v>
+        <v>3.292768519607648</v>
       </c>
       <c r="H6">
-        <v>1.358179759602606</v>
+        <v>2.539041936325191</v>
       </c>
       <c r="I6">
-        <v>1.543559928009891</v>
+        <v>2.645810438542078</v>
       </c>
       <c r="J6">
-        <v>0.02272528591761436</v>
+        <v>0.04419826959447715</v>
       </c>
       <c r="K6">
-        <v>0.6190644584174976</v>
+        <v>0.6700841592950724</v>
       </c>
       <c r="L6">
-        <v>0.2232547853844835</v>
+        <v>0.4918112419114848</v>
       </c>
       <c r="M6">
-        <v>0.1820499263738959</v>
+        <v>0.3317359641564295</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6827237957491548</v>
+        <v>0.9373956621148523</v>
       </c>
       <c r="C7">
-        <v>0.07274761049029621</v>
+        <v>0.02093699397424587</v>
       </c>
       <c r="D7">
-        <v>0.2321982439917605</v>
+        <v>0.4817000182489863</v>
       </c>
       <c r="E7">
-        <v>0.05564819068070115</v>
+        <v>0.1413821107331401</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.108787567589943</v>
+        <v>3.296128336727961</v>
       </c>
       <c r="H7">
-        <v>1.366630674414296</v>
+        <v>2.539010036233947</v>
       </c>
       <c r="I7">
-        <v>1.554266412944031</v>
+        <v>2.64657973044433</v>
       </c>
       <c r="J7">
-        <v>0.02288709131763422</v>
+        <v>0.04427568839609819</v>
       </c>
       <c r="K7">
-        <v>0.6486819656170439</v>
+        <v>0.6760206819751886</v>
       </c>
       <c r="L7">
-        <v>0.2272260930273973</v>
+        <v>0.492008145780801</v>
       </c>
       <c r="M7">
-        <v>0.1883083689277925</v>
+        <v>0.3326031178407902</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8114725712010227</v>
+        <v>0.9607734548818314</v>
       </c>
       <c r="C8">
-        <v>0.08796764792271006</v>
+        <v>0.02533075516683425</v>
       </c>
       <c r="D8">
-        <v>0.2501086284585909</v>
+        <v>0.4831880558366919</v>
       </c>
       <c r="E8">
-        <v>0.05657691518791452</v>
+        <v>0.1409683873906378</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.216799406532317</v>
+        <v>3.313288141035116</v>
       </c>
       <c r="H8">
-        <v>1.406909163487427</v>
+        <v>2.54038299853579</v>
       </c>
       <c r="I8">
-        <v>1.604949933428756</v>
+        <v>2.651572001457367</v>
       </c>
       <c r="J8">
-        <v>0.02359620854917477</v>
+        <v>0.04460577173178848</v>
       </c>
       <c r="K8">
-        <v>0.781065312801104</v>
+        <v>0.7032496261742835</v>
       </c>
       <c r="L8">
-        <v>0.2453890586788674</v>
+        <v>0.4932949119056076</v>
       </c>
       <c r="M8">
-        <v>0.2164906237358295</v>
+        <v>0.3368153408060692</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.072095893306113</v>
+        <v>1.011274214783498</v>
       </c>
       <c r="C9">
-        <v>0.1184280391912012</v>
+        <v>0.03393272053433805</v>
       </c>
       <c r="D9">
-        <v>0.2877811533397363</v>
+        <v>0.4875424813005225</v>
       </c>
       <c r="E9">
-        <v>0.05878513247026618</v>
+        <v>0.1404208177121369</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.450431619874593</v>
+        <v>3.355330380234506</v>
       </c>
       <c r="H9">
-        <v>1.497800141537539</v>
+        <v>2.548509191185673</v>
       </c>
       <c r="I9">
-        <v>1.71812536755354</v>
+        <v>2.667101621409586</v>
       </c>
       <c r="J9">
-        <v>0.02497842982793941</v>
+        <v>0.04521194255581662</v>
       </c>
       <c r="K9">
-        <v>1.048301737368234</v>
+        <v>0.760344913578848</v>
       </c>
       <c r="L9">
-        <v>0.2835979242746021</v>
+        <v>0.4973151274098058</v>
       </c>
       <c r="M9">
-        <v>0.2741468584304201</v>
+        <v>0.3464562348161024</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.270090435721073</v>
+        <v>1.051205416757369</v>
       </c>
       <c r="C10">
-        <v>0.1414023407336913</v>
+        <v>0.04024739275700995</v>
       </c>
       <c r="D10">
-        <v>0.3173103995080311</v>
+        <v>0.4916142148773019</v>
       </c>
       <c r="E10">
-        <v>0.06066906316004683</v>
+        <v>0.1401782936900453</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.638057852214359</v>
+        <v>3.391347273895292</v>
       </c>
       <c r="H10">
-        <v>1.57305457699843</v>
+        <v>2.557789736664859</v>
       </c>
       <c r="I10">
-        <v>1.811163467259234</v>
+        <v>2.682013081408925</v>
       </c>
       <c r="J10">
-        <v>0.02599860039924629</v>
+        <v>0.04563261445643363</v>
       </c>
       <c r="K10">
-        <v>1.250938170546107</v>
+        <v>0.8045458274435759</v>
       </c>
       <c r="L10">
-        <v>0.3135596291621852</v>
+        <v>0.5011779984459537</v>
       </c>
       <c r="M10">
-        <v>0.3183413976540734</v>
+        <v>0.3543779873087658</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.361956996886533</v>
+        <v>1.069983461046547</v>
       </c>
       <c r="C11">
-        <v>0.1520376503134031</v>
+        <v>0.04311975413406799</v>
       </c>
       <c r="D11">
-        <v>0.3312183017390424</v>
+        <v>0.4936554247577476</v>
       </c>
       <c r="E11">
-        <v>0.06158915560702916</v>
+        <v>0.1401024498374337</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.727537170538454</v>
+        <v>3.408849031346449</v>
       </c>
       <c r="H11">
-        <v>1.609428968688917</v>
+        <v>2.562730208426927</v>
       </c>
       <c r="I11">
-        <v>1.855998936715366</v>
+        <v>2.689557926758383</v>
       </c>
       <c r="J11">
-        <v>0.0264661310872949</v>
+        <v>0.04581871345964039</v>
       </c>
       <c r="K11">
-        <v>1.34489357934649</v>
+        <v>0.8251431534508527</v>
       </c>
       <c r="L11">
-        <v>0.3276761104489054</v>
+        <v>0.5031321194493756</v>
       </c>
       <c r="M11">
-        <v>0.3389372619902531</v>
+        <v>0.3581633238095208</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.397037483366489</v>
+        <v>1.077182121294896</v>
       </c>
       <c r="C12">
-        <v>0.1560964621613437</v>
+        <v>0.04420746181155266</v>
       </c>
       <c r="D12">
-        <v>0.3365597205918647</v>
+        <v>0.494455484097756</v>
       </c>
       <c r="E12">
-        <v>0.06194720998755443</v>
+        <v>0.1400786702703396</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.762073994661392</v>
+        <v>3.41563731388257</v>
       </c>
       <c r="H12">
-        <v>1.623538191456817</v>
+        <v>2.564704311776978</v>
       </c>
       <c r="I12">
-        <v>1.873371389476546</v>
+        <v>2.692524475771933</v>
       </c>
       <c r="J12">
-        <v>0.02664389263618538</v>
+        <v>0.04588843311702107</v>
       </c>
       <c r="K12">
-        <v>1.380764059127046</v>
+        <v>0.8330131796153921</v>
       </c>
       <c r="L12">
-        <v>0.333098556637637</v>
+        <v>0.5039003372360185</v>
       </c>
       <c r="M12">
-        <v>0.3468154609734739</v>
+        <v>0.3596227875526878</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.389468682469243</v>
+        <v>1.075627860552316</v>
       </c>
       <c r="C13">
-        <v>0.1552208413144029</v>
+        <v>0.04397320359889534</v>
       </c>
       <c r="D13">
-        <v>0.3354059139553556</v>
+        <v>0.4942819730153332</v>
       </c>
       <c r="E13">
-        <v>0.06186965851978243</v>
+        <v>0.1400835721580211</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.754605826045889</v>
+        <v>3.414168185660202</v>
       </c>
       <c r="H13">
-        <v>1.620484157407162</v>
+        <v>2.564274562546075</v>
       </c>
       <c r="I13">
-        <v>1.869611829131472</v>
+        <v>2.691880707678266</v>
       </c>
       <c r="J13">
-        <v>0.02660557280573528</v>
+        <v>0.04587345110130592</v>
       </c>
       <c r="K13">
-        <v>1.373025125102629</v>
+        <v>0.8313151068973923</v>
       </c>
       <c r="L13">
-        <v>0.3319272025750877</v>
+        <v>0.5037336332638915</v>
       </c>
       <c r="M13">
-        <v>0.3451150961972189</v>
+        <v>0.3593073092235315</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.364837018800671</v>
+        <v>1.070573941033672</v>
       </c>
       <c r="C14">
-        <v>0.152370910702686</v>
+        <v>0.0432092401471067</v>
       </c>
       <c r="D14">
-        <v>0.3316562050735428</v>
+        <v>0.4937207034718938</v>
       </c>
       <c r="E14">
-        <v>0.06161841644137311</v>
+        <v>0.140100394556125</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.730365089699035</v>
+        <v>3.409404285522299</v>
       </c>
       <c r="H14">
-        <v>1.610582863736681</v>
+        <v>2.562890550274432</v>
       </c>
       <c r="I14">
-        <v>1.857420077945861</v>
+        <v>2.68979979255937</v>
       </c>
       <c r="J14">
-        <v>0.02648073989951172</v>
+        <v>0.04582446437839138</v>
       </c>
       <c r="K14">
-        <v>1.347838600816743</v>
+        <v>0.8257892182034539</v>
       </c>
       <c r="L14">
-        <v>0.3281206369063625</v>
+        <v>0.5031947557629763</v>
       </c>
       <c r="M14">
-        <v>0.339583772738294</v>
+        <v>0.3582828734110848</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.349788585392929</v>
+        <v>1.067489696266222</v>
       </c>
       <c r="C15">
-        <v>0.1506294974087723</v>
+        <v>0.04274129247471592</v>
       </c>
       <c r="D15">
-        <v>0.3293693440384402</v>
+        <v>0.4933804363616616</v>
       </c>
       <c r="E15">
-        <v>0.06146579580721756</v>
+        <v>0.1401113416870086</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.715603829662712</v>
+        <v>3.406507194710059</v>
       </c>
       <c r="H15">
-        <v>1.604562515994672</v>
+        <v>2.562056246710426</v>
       </c>
       <c r="I15">
-        <v>1.850004650445243</v>
+        <v>2.688539428603292</v>
       </c>
       <c r="J15">
-        <v>0.02640437658842032</v>
+        <v>0.0457943608227982</v>
       </c>
       <c r="K15">
-        <v>1.33245023948362</v>
+        <v>0.8224135963056369</v>
       </c>
       <c r="L15">
-        <v>0.3257992263224736</v>
+        <v>0.5028683524448923</v>
       </c>
       <c r="M15">
-        <v>0.3362062240404953</v>
+        <v>0.3576587653421583</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.2641257609246</v>
+        <v>1.049990535637022</v>
       </c>
       <c r="C16">
-        <v>0.1407114180863687</v>
+        <v>0.04005967607795924</v>
       </c>
       <c r="D16">
-        <v>0.3164115849813953</v>
+        <v>0.4914846129460102</v>
       </c>
       <c r="E16">
-        <v>0.06061024945313775</v>
+        <v>0.1401839426178313</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.632298179106186</v>
+        <v>3.390225984160054</v>
       </c>
       <c r="H16">
-        <v>1.570722770943632</v>
+        <v>2.557481319240992</v>
       </c>
       <c r="I16">
-        <v>1.808286665942916</v>
+        <v>2.681535329731631</v>
       </c>
       <c r="J16">
-        <v>0.02596813403863329</v>
+        <v>0.04562034692619577</v>
       </c>
       <c r="K16">
-        <v>1.244836714643185</v>
+        <v>0.8032095878437815</v>
       </c>
       <c r="L16">
-        <v>0.3126474499415366</v>
+        <v>0.5010542472230952</v>
       </c>
       <c r="M16">
-        <v>0.3170059938821908</v>
+        <v>0.3541342552128555</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.21205815974119</v>
+        <v>1.039412159422426</v>
       </c>
       <c r="C17">
-        <v>0.1346775560738251</v>
+        <v>0.03841456299090851</v>
       </c>
       <c r="D17">
-        <v>0.3085885063462399</v>
+        <v>0.4903699301361399</v>
       </c>
       <c r="E17">
-        <v>0.06010194267403435</v>
+        <v>0.1402372999600185</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.582290575597284</v>
+        <v>3.380524242431733</v>
       </c>
       <c r="H17">
-        <v>1.550530065656346</v>
+        <v>2.554858758937769</v>
       </c>
       <c r="I17">
-        <v>1.783359978153811</v>
+        <v>2.677433570978849</v>
       </c>
       <c r="J17">
-        <v>0.02570154782623746</v>
+        <v>0.04551224990953706</v>
       </c>
       <c r="K17">
-        <v>1.191568126847102</v>
+        <v>0.7915539277329913</v>
       </c>
       <c r="L17">
-        <v>0.3047086107749948</v>
+        <v>0.4999917236418696</v>
       </c>
       <c r="M17">
-        <v>0.3053588504646143</v>
+        <v>0.3520185549800985</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.182277258830908</v>
+        <v>1.033385489296535</v>
       </c>
       <c r="C18">
-        <v>0.131224050142464</v>
+        <v>0.03746831498438041</v>
       </c>
       <c r="D18">
-        <v>0.3041331562013312</v>
+        <v>0.4897465840843864</v>
       </c>
       <c r="E18">
-        <v>0.05981547916187324</v>
+        <v>0.1402712362996006</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.553912131797773</v>
+        <v>3.375049237526014</v>
       </c>
       <c r="H18">
-        <v>1.53911548725543</v>
+        <v>2.553417985078738</v>
       </c>
       <c r="I18">
-        <v>1.769257100059079</v>
+        <v>2.675146029957659</v>
       </c>
       <c r="J18">
-        <v>0.02554852468123592</v>
+        <v>0.04544957931370242</v>
       </c>
       <c r="K18">
-        <v>1.161094157440459</v>
+        <v>0.7848960440381347</v>
       </c>
       <c r="L18">
-        <v>0.300187770984266</v>
+        <v>0.4993991241453131</v>
       </c>
       <c r="M18">
-        <v>0.29870544832972</v>
+        <v>0.3508187670314769</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.17222165207906</v>
+        <v>1.03135488851575</v>
       </c>
       <c r="C19">
-        <v>0.1300575306043044</v>
+        <v>0.03714792666492883</v>
       </c>
       <c r="D19">
-        <v>0.3026320668299718</v>
+        <v>0.4895385875542786</v>
       </c>
       <c r="E19">
-        <v>0.05971948466006083</v>
+        <v>0.1402832847056672</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.544368009798006</v>
+        <v>3.373213558189718</v>
       </c>
       <c r="H19">
-        <v>1.535284222554225</v>
+        <v>2.552941786287533</v>
       </c>
       <c r="I19">
-        <v>1.76452138988401</v>
+        <v>2.674383820283595</v>
       </c>
       <c r="J19">
-        <v>0.02549676055289396</v>
+        <v>0.04542827476615052</v>
       </c>
       <c r="K19">
-        <v>1.150803430675126</v>
+        <v>0.7826497307451632</v>
       </c>
       <c r="L19">
-        <v>0.2986646860121311</v>
+        <v>0.4992016660609124</v>
       </c>
       <c r="M19">
-        <v>0.2964603332043509</v>
+        <v>0.3504154802690351</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.217583323158465</v>
+        <v>1.040532273098648</v>
       </c>
       <c r="C20">
-        <v>0.1353180758708845</v>
+        <v>0.03858969014066815</v>
       </c>
       <c r="D20">
-        <v>0.3094166585081126</v>
+        <v>0.4904867493662266</v>
       </c>
       <c r="E20">
-        <v>0.06015543812610247</v>
+        <v>0.1402312840958064</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.587573751339278</v>
+        <v>3.381546123244448</v>
       </c>
       <c r="H20">
-        <v>1.552658753032489</v>
+        <v>2.555130933762825</v>
       </c>
       <c r="I20">
-        <v>1.785988988426155</v>
+        <v>2.677862791579912</v>
       </c>
       <c r="J20">
-        <v>0.02572989274462323</v>
+        <v>0.04552380832241454</v>
       </c>
       <c r="K20">
-        <v>1.197221358986582</v>
+        <v>0.7927899184904845</v>
       </c>
       <c r="L20">
-        <v>0.305548970433378</v>
+        <v>0.500102913247531</v>
       </c>
       <c r="M20">
-        <v>0.3065939184185495</v>
+        <v>0.3522420050264401</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.372063706828328</v>
+        <v>1.072056018968851</v>
       </c>
       <c r="C21">
-        <v>0.1532071088403626</v>
+        <v>0.04343363424631264</v>
       </c>
       <c r="D21">
-        <v>0.3327555007201681</v>
+        <v>0.4938848271158065</v>
       </c>
       <c r="E21">
-        <v>0.06169194608675355</v>
+        <v>0.1400953194558614</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.737466959666648</v>
+        <v>3.410799195418974</v>
       </c>
       <c r="H21">
-        <v>1.613481791895993</v>
+        <v>2.563294266693845</v>
       </c>
       <c r="I21">
-        <v>1.860990113270489</v>
+        <v>2.690408036752046</v>
       </c>
       <c r="J21">
-        <v>0.0265173849886029</v>
+        <v>0.04583887333262027</v>
       </c>
       <c r="K21">
-        <v>1.355228272913308</v>
+        <v>0.8274104003320417</v>
       </c>
       <c r="L21">
-        <v>0.3292365744002126</v>
+        <v>0.5033522714768282</v>
       </c>
       <c r="M21">
-        <v>0.3412062426968703</v>
+        <v>0.358583069048457</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.474749279261658</v>
+        <v>1.093170347875315</v>
       </c>
       <c r="C22">
-        <v>0.1650846121050051</v>
+        <v>0.04659948879741194</v>
       </c>
       <c r="D22">
-        <v>0.3484482124659536</v>
+        <v>0.4962635780158848</v>
       </c>
       <c r="E22">
-        <v>0.06275260352769152</v>
+        <v>0.1400352497275712</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.839268362845957</v>
+        <v>3.430854750396719</v>
       </c>
       <c r="H22">
-        <v>1.655200454087094</v>
+        <v>2.569231276611191</v>
       </c>
       <c r="I22">
-        <v>1.912323138468622</v>
+        <v>2.699245198899931</v>
       </c>
       <c r="J22">
-        <v>0.02703636050310898</v>
+        <v>0.04604040580010427</v>
       </c>
       <c r="K22">
-        <v>1.460213998728875</v>
+        <v>0.8504463543513623</v>
       </c>
       <c r="L22">
-        <v>0.3451693208795632</v>
+        <v>0.505640452596225</v>
       </c>
       <c r="M22">
-        <v>0.3642922428348925</v>
+        <v>0.3628790558452692</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.419774240388165</v>
+        <v>1.081854522339967</v>
       </c>
       <c r="C23">
-        <v>0.1587265766072363</v>
+        <v>0.04490979492204872</v>
       </c>
       <c r="D23">
-        <v>0.3400302045058936</v>
+        <v>0.4949795694764703</v>
       </c>
       <c r="E23">
-        <v>0.06218114491445803</v>
+        <v>0.1400646814569981</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.784562799898282</v>
+        <v>3.420064971531929</v>
       </c>
       <c r="H23">
-        <v>1.632744758356012</v>
+        <v>2.566007548925114</v>
       </c>
       <c r="I23">
-        <v>1.884702158492487</v>
+        <v>2.694470260746172</v>
       </c>
       <c r="J23">
-        <v>0.02675890037535389</v>
+        <v>0.04593324319892744</v>
       </c>
       <c r="K23">
-        <v>1.404010933638403</v>
+        <v>0.8381142345844523</v>
       </c>
       <c r="L23">
-        <v>0.3366219708555036</v>
+        <v>0.5044041772021188</v>
       </c>
       <c r="M23">
-        <v>0.3519253288406006</v>
+        <v>0.3605723519083028</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.215084921332846</v>
+        <v>1.040025698423051</v>
       </c>
       <c r="C24">
-        <v>0.1350284491424816</v>
+        <v>0.03851051656387483</v>
       </c>
       <c r="D24">
-        <v>0.3090421198259889</v>
+        <v>0.4904338808778306</v>
       </c>
       <c r="E24">
-        <v>0.06013123490563466</v>
+        <v>0.1402339937108028</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.585184074584078</v>
+        <v>3.38108381115282</v>
       </c>
       <c r="H24">
-        <v>1.551695769742963</v>
+        <v>2.555007674887605</v>
       </c>
       <c r="I24">
-        <v>1.784799705774176</v>
+        <v>2.67766852096868</v>
       </c>
       <c r="J24">
-        <v>0.02571707727345895</v>
+        <v>0.04551858439745438</v>
       </c>
       <c r="K24">
-        <v>1.194665065574867</v>
+        <v>0.7922309927687081</v>
       </c>
       <c r="L24">
-        <v>0.3051689094575494</v>
+        <v>0.5000525875449142</v>
       </c>
       <c r="M24">
-        <v>0.306035411827601</v>
+        <v>0.3521409316825981</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.000565961207684</v>
+        <v>0.997114985354898</v>
       </c>
       <c r="C25">
-        <v>0.1101003290533669</v>
+        <v>0.03160682333266607</v>
       </c>
       <c r="D25">
-        <v>0.2772875046702268</v>
+        <v>0.4862110440832765</v>
       </c>
       <c r="E25">
-        <v>0.05814379634258948</v>
+        <v>0.1405408192418829</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.384628815007403</v>
+        <v>3.343057140042617</v>
       </c>
       <c r="H25">
-        <v>1.471817341308565</v>
+        <v>2.545729364381373</v>
       </c>
       <c r="I25">
-        <v>1.685886601642807</v>
+        <v>2.662285687050087</v>
       </c>
       <c r="J25">
-        <v>0.0246044435458348</v>
+        <v>0.04505231959167055</v>
       </c>
       <c r="K25">
-        <v>0.9750284109118752</v>
+        <v>0.7445033261434446</v>
       </c>
       <c r="L25">
-        <v>0.272953507251998</v>
+        <v>0.4960676480353783</v>
       </c>
       <c r="M25">
-        <v>0.2582562840643909</v>
+        <v>0.3437006294527123</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9674232357537278</v>
+        <v>0.8468552879800484</v>
       </c>
       <c r="C2">
-        <v>0.02652015634538429</v>
+        <v>0.09212552363420912</v>
       </c>
       <c r="D2">
-        <v>0.4836885644257904</v>
+        <v>0.2551238319651219</v>
       </c>
       <c r="E2">
-        <v>0.140874175409694</v>
+        <v>0.05685386023469619</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.31850504664871</v>
+        <v>2.247450124535959</v>
       </c>
       <c r="H2">
-        <v>2.541122826129453</v>
+        <v>1.418586432879323</v>
       </c>
       <c r="I2">
-        <v>2.653312996810925</v>
+        <v>1.61956454508055</v>
       </c>
       <c r="J2">
-        <v>0.04469241048186845</v>
+        <v>0.02378744656940857</v>
       </c>
       <c r="K2">
-        <v>0.7108777566345452</v>
+        <v>0.8173947356071949</v>
       </c>
       <c r="L2">
-        <v>0.4937449865969512</v>
+        <v>0.2504750359217311</v>
       </c>
       <c r="M2">
-        <v>0.3380502029213126</v>
+        <v>0.224275465684773</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.948490943294928</v>
+        <v>0.744815562513935</v>
       </c>
       <c r="C3">
-        <v>0.02306945084059464</v>
+        <v>0.08010764301755557</v>
       </c>
       <c r="D3">
-        <v>0.4823460318738313</v>
+        <v>0.2407644292759983</v>
       </c>
       <c r="E3">
-        <v>0.141167447855354</v>
+        <v>0.05607935456990809</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.304011144735313</v>
+        <v>2.160142672957278</v>
       </c>
       <c r="H3">
-        <v>2.53938946116665</v>
+        <v>1.385591477825642</v>
       </c>
       <c r="I3">
-        <v>2.648699091044705</v>
+        <v>1.578186427837103</v>
       </c>
       <c r="J3">
-        <v>0.04443800808326692</v>
+        <v>0.02323192901092241</v>
       </c>
       <c r="K3">
-        <v>0.6890351506519892</v>
+        <v>0.7125678605008261</v>
       </c>
       <c r="L3">
-        <v>0.4925533177422139</v>
+        <v>0.2359131500724772</v>
       </c>
       <c r="M3">
-        <v>0.3345736557077501</v>
+        <v>0.2018693235787481</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9374549143786339</v>
+        <v>0.6830612224229071</v>
       </c>
       <c r="C4">
-        <v>0.02094865460186668</v>
+        <v>0.07278772313327408</v>
       </c>
       <c r="D4">
-        <v>0.4817031203875644</v>
+        <v>0.2322443970763715</v>
       </c>
       <c r="E4">
-        <v>0.1413808585952143</v>
+        <v>0.05565044007638598</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.29616892731346</v>
+        <v>2.109062593194039</v>
       </c>
       <c r="H4">
-        <v>2.539010491534583</v>
+        <v>1.366731142966614</v>
       </c>
       <c r="I4">
-        <v>2.646589606297553</v>
+        <v>1.554393510201294</v>
       </c>
       <c r="J4">
-        <v>0.0442765879519289</v>
+        <v>0.02288898155529306</v>
       </c>
       <c r="K4">
-        <v>0.6760907118538171</v>
+        <v>0.6490293809694379</v>
       </c>
       <c r="L4">
-        <v>0.4920106786794207</v>
+        <v>0.2272728984299306</v>
       </c>
       <c r="M4">
-        <v>0.3326134758638268</v>
+        <v>0.1883818936773558</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9331059895148428</v>
+        <v>0.6581009840253671</v>
       </c>
       <c r="C5">
-        <v>0.02008386078982483</v>
+        <v>0.06981670492292835</v>
       </c>
       <c r="D5">
-        <v>0.4814868281941926</v>
+        <v>0.2288430003948747</v>
       </c>
       <c r="E5">
-        <v>0.1414762281189308</v>
+        <v>0.05548703283506562</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.293238980031845</v>
+        <v>2.088846118618491</v>
       </c>
       <c r="H5">
-        <v>2.539028522026655</v>
+        <v>1.359380544533977</v>
       </c>
       <c r="I5">
-        <v>2.645911966211514</v>
+        <v>1.54508318614463</v>
       </c>
       <c r="J5">
-        <v>0.04420949075159708</v>
+        <v>0.02274863074698263</v>
       </c>
       <c r="K5">
-        <v>0.6709334115983268</v>
+        <v>0.6233224816014058</v>
       </c>
       <c r="L5">
-        <v>0.4918371733774904</v>
+        <v>0.2238233776985723</v>
       </c>
       <c r="M5">
-        <v>0.3318586453507777</v>
+        <v>0.1829484868899094</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9323928245948139</v>
+        <v>0.6539681640079209</v>
       </c>
       <c r="C6">
-        <v>0.01994022802082895</v>
+        <v>0.06932400614955725</v>
       </c>
       <c r="D6">
-        <v>0.481453675621907</v>
+        <v>0.2282823512635588</v>
       </c>
       <c r="E6">
-        <v>0.1414925722380129</v>
+        <v>0.05546057667189075</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.292768519607648</v>
+        <v>2.085524349238042</v>
       </c>
       <c r="H6">
-        <v>2.539041936325191</v>
+        <v>1.358179759602706</v>
       </c>
       <c r="I6">
-        <v>2.645810438542078</v>
+        <v>1.543559928009884</v>
       </c>
       <c r="J6">
-        <v>0.04419826959447715</v>
+        <v>0.02272528591751488</v>
       </c>
       <c r="K6">
-        <v>0.6700841592950724</v>
+        <v>0.6190644584176113</v>
       </c>
       <c r="L6">
-        <v>0.4918112419114848</v>
+        <v>0.2232547853844835</v>
       </c>
       <c r="M6">
-        <v>0.3317359641564295</v>
+        <v>0.1820499263738924</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9373956621148523</v>
+        <v>0.6827237957490127</v>
       </c>
       <c r="C7">
-        <v>0.02093699397424587</v>
+        <v>0.07274761049045253</v>
       </c>
       <c r="D7">
-        <v>0.4817000182489863</v>
+        <v>0.2321982439915615</v>
       </c>
       <c r="E7">
-        <v>0.1413821107331401</v>
+        <v>0.05564819068070648</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.296128336727961</v>
+        <v>2.108787567589971</v>
       </c>
       <c r="H7">
-        <v>2.539010036233947</v>
+        <v>1.366630674414381</v>
       </c>
       <c r="I7">
-        <v>2.64657973044433</v>
+        <v>1.554266412944074</v>
       </c>
       <c r="J7">
-        <v>0.04427568839609819</v>
+        <v>0.02288709131772215</v>
       </c>
       <c r="K7">
-        <v>0.6760206819751886</v>
+        <v>0.6486819656170724</v>
       </c>
       <c r="L7">
-        <v>0.492008145780801</v>
+        <v>0.2272260930274186</v>
       </c>
       <c r="M7">
-        <v>0.3326031178407902</v>
+        <v>0.188308368927796</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9607734548818314</v>
+        <v>0.8114725712008521</v>
       </c>
       <c r="C8">
-        <v>0.02533075516683425</v>
+        <v>0.08796764792271006</v>
       </c>
       <c r="D8">
-        <v>0.4831880558366919</v>
+        <v>0.2501086284586904</v>
       </c>
       <c r="E8">
-        <v>0.1409683873906378</v>
+        <v>0.05657691518791985</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.313288141035116</v>
+        <v>2.216799406532317</v>
       </c>
       <c r="H8">
-        <v>2.54038299853579</v>
+        <v>1.406909163487455</v>
       </c>
       <c r="I8">
-        <v>2.651572001457367</v>
+        <v>1.604949933428813</v>
       </c>
       <c r="J8">
-        <v>0.04460577173178848</v>
+        <v>0.02359620854924938</v>
       </c>
       <c r="K8">
-        <v>0.7032496261742835</v>
+        <v>0.7810653128011324</v>
       </c>
       <c r="L8">
-        <v>0.4932949119056076</v>
+        <v>0.2453890586787111</v>
       </c>
       <c r="M8">
-        <v>0.3368153408060692</v>
+        <v>0.2164906237358366</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.011274214783498</v>
+        <v>1.072095893306312</v>
       </c>
       <c r="C9">
-        <v>0.03393272053433805</v>
+        <v>0.1184280391914427</v>
       </c>
       <c r="D9">
-        <v>0.4875424813005225</v>
+        <v>0.2877811533397221</v>
       </c>
       <c r="E9">
-        <v>0.1404208177121369</v>
+        <v>0.05878513247029815</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.355330380234506</v>
+        <v>2.450431619874649</v>
       </c>
       <c r="H9">
-        <v>2.548509191185673</v>
+        <v>1.497800141537482</v>
       </c>
       <c r="I9">
-        <v>2.667101621409586</v>
+        <v>1.718125367553597</v>
       </c>
       <c r="J9">
-        <v>0.04521194255581662</v>
+        <v>0.02497842982798204</v>
       </c>
       <c r="K9">
-        <v>0.760344913578848</v>
+        <v>1.048301737368206</v>
       </c>
       <c r="L9">
-        <v>0.4973151274098058</v>
+        <v>0.283597924274531</v>
       </c>
       <c r="M9">
-        <v>0.3464562348161024</v>
+        <v>0.274146858430445</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.051205416757369</v>
+        <v>1.270090435721102</v>
       </c>
       <c r="C10">
-        <v>0.04024739275700995</v>
+        <v>0.1414023407341318</v>
       </c>
       <c r="D10">
-        <v>0.4916142148773019</v>
+        <v>0.3173103995080169</v>
       </c>
       <c r="E10">
-        <v>0.1401782936900453</v>
+        <v>0.06066906316010545</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.391347273895292</v>
+        <v>2.638057852214359</v>
       </c>
       <c r="H10">
-        <v>2.557789736664859</v>
+        <v>1.573054576998459</v>
       </c>
       <c r="I10">
-        <v>2.682013081408925</v>
+        <v>1.81116346725922</v>
       </c>
       <c r="J10">
-        <v>0.04563261445643363</v>
+        <v>0.02599860039934043</v>
       </c>
       <c r="K10">
-        <v>0.8045458274435759</v>
+        <v>1.250938170546078</v>
       </c>
       <c r="L10">
-        <v>0.5011779984459537</v>
+        <v>0.3135596291620999</v>
       </c>
       <c r="M10">
-        <v>0.3543779873087658</v>
+        <v>0.3183413976540947</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.069983461046547</v>
+        <v>1.361956996886448</v>
       </c>
       <c r="C11">
-        <v>0.04311975413406799</v>
+        <v>0.1520376503133747</v>
       </c>
       <c r="D11">
-        <v>0.4936554247577476</v>
+        <v>0.331218301738943</v>
       </c>
       <c r="E11">
-        <v>0.1401024498374337</v>
+        <v>0.061589155607086</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.408849031346449</v>
+        <v>2.727537170538369</v>
       </c>
       <c r="H11">
-        <v>2.562730208426927</v>
+        <v>1.609428968688917</v>
       </c>
       <c r="I11">
-        <v>2.689557926758383</v>
+        <v>1.855998936715366</v>
       </c>
       <c r="J11">
-        <v>0.04581871345964039</v>
+        <v>0.02646613108725226</v>
       </c>
       <c r="K11">
-        <v>0.8251431534508527</v>
+        <v>1.344893579346405</v>
       </c>
       <c r="L11">
-        <v>0.5031321194493756</v>
+        <v>0.3276761104488486</v>
       </c>
       <c r="M11">
-        <v>0.3581633238095208</v>
+        <v>0.3389372619902673</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.077182121294896</v>
+        <v>1.397037483366489</v>
       </c>
       <c r="C12">
-        <v>0.04420746181155266</v>
+        <v>0.1560964621613579</v>
       </c>
       <c r="D12">
-        <v>0.494455484097756</v>
+        <v>0.3365597205919357</v>
       </c>
       <c r="E12">
-        <v>0.1400786702703396</v>
+        <v>0.06194720998757752</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.41563731388257</v>
+        <v>2.762073994661478</v>
       </c>
       <c r="H12">
-        <v>2.564704311776978</v>
+        <v>1.623538191456788</v>
       </c>
       <c r="I12">
-        <v>2.692524475771933</v>
+        <v>1.87337138947656</v>
       </c>
       <c r="J12">
-        <v>0.04588843311702107</v>
+        <v>0.02664389263620315</v>
       </c>
       <c r="K12">
-        <v>0.8330131796153921</v>
+        <v>1.380764059127102</v>
       </c>
       <c r="L12">
-        <v>0.5039003372360185</v>
+        <v>0.3330985566377223</v>
       </c>
       <c r="M12">
-        <v>0.3596227875526878</v>
+        <v>0.3468154609734952</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.075627860552316</v>
+        <v>1.389468682469357</v>
       </c>
       <c r="C13">
-        <v>0.04397320359889534</v>
+        <v>0.1552208413143887</v>
       </c>
       <c r="D13">
-        <v>0.4942819730153332</v>
+        <v>0.3354059139553129</v>
       </c>
       <c r="E13">
-        <v>0.1400835721580211</v>
+        <v>0.06186965851974335</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.414168185660202</v>
+        <v>2.754605826046003</v>
       </c>
       <c r="H13">
-        <v>2.564274562546075</v>
+        <v>1.620484157407191</v>
       </c>
       <c r="I13">
-        <v>2.691880707678266</v>
+        <v>1.869611829131486</v>
       </c>
       <c r="J13">
-        <v>0.04587345110130592</v>
+        <v>0.02660557280586495</v>
       </c>
       <c r="K13">
-        <v>0.8313151068973923</v>
+        <v>1.373025125102657</v>
       </c>
       <c r="L13">
-        <v>0.5037336332638915</v>
+        <v>0.3319272025751729</v>
       </c>
       <c r="M13">
-        <v>0.3593073092235315</v>
+        <v>0.3451150961972189</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.070573941033672</v>
+        <v>1.364837018800642</v>
       </c>
       <c r="C14">
-        <v>0.0432092401471067</v>
+        <v>0.152370910702686</v>
       </c>
       <c r="D14">
-        <v>0.4937207034718938</v>
+        <v>0.3316562050734007</v>
       </c>
       <c r="E14">
-        <v>0.140100394556125</v>
+        <v>0.06161841644140864</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.409404285522299</v>
+        <v>2.730365089699006</v>
       </c>
       <c r="H14">
-        <v>2.562890550274432</v>
+        <v>1.610582863736596</v>
       </c>
       <c r="I14">
-        <v>2.68979979255937</v>
+        <v>1.857420077945875</v>
       </c>
       <c r="J14">
-        <v>0.04582446437839138</v>
+        <v>0.02648073989964672</v>
       </c>
       <c r="K14">
-        <v>0.8257892182034539</v>
+        <v>1.347838600816715</v>
       </c>
       <c r="L14">
-        <v>0.5031947557629763</v>
+        <v>0.328120636906263</v>
       </c>
       <c r="M14">
-        <v>0.3582828734110848</v>
+        <v>0.3395837727383153</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.067489696266222</v>
+        <v>1.349788585392815</v>
       </c>
       <c r="C15">
-        <v>0.04274129247471592</v>
+        <v>0.1506294974087297</v>
       </c>
       <c r="D15">
-        <v>0.4933804363616616</v>
+        <v>0.3293693440381702</v>
       </c>
       <c r="E15">
-        <v>0.1401113416870086</v>
+        <v>0.06146579580720513</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.406507194710059</v>
+        <v>2.715603829662683</v>
       </c>
       <c r="H15">
-        <v>2.562056246710426</v>
+        <v>1.604562515994758</v>
       </c>
       <c r="I15">
-        <v>2.688539428603292</v>
+        <v>1.850004650445271</v>
       </c>
       <c r="J15">
-        <v>0.0457943608227982</v>
+        <v>0.02640437658834394</v>
       </c>
       <c r="K15">
-        <v>0.8224135963056369</v>
+        <v>1.33245023948362</v>
       </c>
       <c r="L15">
-        <v>0.5028683524448923</v>
+        <v>0.3257992263225447</v>
       </c>
       <c r="M15">
-        <v>0.3576587653421583</v>
+        <v>0.3362062240404953</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049990535637022</v>
+        <v>1.264125760924571</v>
       </c>
       <c r="C16">
-        <v>0.04005967607795924</v>
+        <v>0.1407114180865818</v>
       </c>
       <c r="D16">
-        <v>0.4914846129460102</v>
+        <v>0.3164115849813953</v>
       </c>
       <c r="E16">
-        <v>0.1401839426178313</v>
+        <v>0.06061024945316618</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.390225984160054</v>
+        <v>2.632298179106158</v>
       </c>
       <c r="H16">
-        <v>2.557481319240992</v>
+        <v>1.570722770943661</v>
       </c>
       <c r="I16">
-        <v>2.681535329731631</v>
+        <v>1.80828666594293</v>
       </c>
       <c r="J16">
-        <v>0.04562034692619577</v>
+        <v>0.0259681340386404</v>
       </c>
       <c r="K16">
-        <v>0.8032095878437815</v>
+        <v>1.244836714643327</v>
       </c>
       <c r="L16">
-        <v>0.5010542472230952</v>
+        <v>0.3126474499414229</v>
       </c>
       <c r="M16">
-        <v>0.3541342552128555</v>
+        <v>0.3170059938822121</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.039412159422426</v>
+        <v>1.212058159741048</v>
       </c>
       <c r="C17">
-        <v>0.03841456299090851</v>
+        <v>0.1346775560738109</v>
       </c>
       <c r="D17">
-        <v>0.4903699301361399</v>
+        <v>0.3085885063462399</v>
       </c>
       <c r="E17">
-        <v>0.1402372999600185</v>
+        <v>0.06010194267398106</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.380524242431733</v>
+        <v>2.58229057559717</v>
       </c>
       <c r="H17">
-        <v>2.554858758937769</v>
+        <v>1.550530065656375</v>
       </c>
       <c r="I17">
-        <v>2.677433570978849</v>
+        <v>1.783359978153811</v>
       </c>
       <c r="J17">
-        <v>0.04551224990953706</v>
+        <v>0.02570154782626943</v>
       </c>
       <c r="K17">
-        <v>0.7915539277329913</v>
+        <v>1.191568126847159</v>
       </c>
       <c r="L17">
-        <v>0.4999917236418696</v>
+        <v>0.3047086107749095</v>
       </c>
       <c r="M17">
-        <v>0.3520185549800985</v>
+        <v>0.305358850464593</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.033385489296535</v>
+        <v>1.182277258830851</v>
       </c>
       <c r="C18">
-        <v>0.03746831498438041</v>
+        <v>0.1312240501420092</v>
       </c>
       <c r="D18">
-        <v>0.4897465840843864</v>
+        <v>0.3041331562014449</v>
       </c>
       <c r="E18">
-        <v>0.1402712362996006</v>
+        <v>0.05981547916184304</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.375049237526014</v>
+        <v>2.553912131797716</v>
       </c>
       <c r="H18">
-        <v>2.553417985078738</v>
+        <v>1.53911548725543</v>
       </c>
       <c r="I18">
-        <v>2.675146029957659</v>
+        <v>1.769257100059065</v>
       </c>
       <c r="J18">
-        <v>0.04544957931370242</v>
+        <v>0.02554852468119684</v>
       </c>
       <c r="K18">
-        <v>0.7848960440381347</v>
+        <v>1.161094157440488</v>
       </c>
       <c r="L18">
-        <v>0.4993991241453131</v>
+        <v>0.3001877709841096</v>
       </c>
       <c r="M18">
-        <v>0.3508187670314769</v>
+        <v>0.29870544832972</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.03135488851575</v>
+        <v>1.172221652079145</v>
       </c>
       <c r="C19">
-        <v>0.03714792666492883</v>
+        <v>0.1300575306043186</v>
       </c>
       <c r="D19">
-        <v>0.4895385875542786</v>
+        <v>0.3026320668301992</v>
       </c>
       <c r="E19">
-        <v>0.1402832847056672</v>
+        <v>0.05971948466008747</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.373213558189718</v>
+        <v>2.544368009798177</v>
       </c>
       <c r="H19">
-        <v>2.552941786287533</v>
+        <v>1.535284222554367</v>
       </c>
       <c r="I19">
-        <v>2.674383820283595</v>
+        <v>1.764521389884024</v>
       </c>
       <c r="J19">
-        <v>0.04542827476615052</v>
+        <v>0.02549676055297923</v>
       </c>
       <c r="K19">
-        <v>0.7826497307451632</v>
+        <v>1.150803430675182</v>
       </c>
       <c r="L19">
-        <v>0.4992016660609124</v>
+        <v>0.2986646860122022</v>
       </c>
       <c r="M19">
-        <v>0.3504154802690351</v>
+        <v>0.2964603332043581</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.040532273098648</v>
+        <v>1.217583323158266</v>
       </c>
       <c r="C20">
-        <v>0.03858969014066815</v>
+        <v>0.1353180758704298</v>
       </c>
       <c r="D20">
-        <v>0.4904867493662266</v>
+        <v>0.3094166585079989</v>
       </c>
       <c r="E20">
-        <v>0.1402312840958064</v>
+        <v>0.06015543812605273</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.381546123244448</v>
+        <v>2.58757375133942</v>
       </c>
       <c r="H20">
-        <v>2.555130933762825</v>
+        <v>1.552658753032404</v>
       </c>
       <c r="I20">
-        <v>2.677862791579912</v>
+        <v>1.785988988426183</v>
       </c>
       <c r="J20">
-        <v>0.04552380832241454</v>
+        <v>0.02572989274452198</v>
       </c>
       <c r="K20">
-        <v>0.7927899184904845</v>
+        <v>1.197221358986525</v>
       </c>
       <c r="L20">
-        <v>0.500102913247531</v>
+        <v>0.3055489704333496</v>
       </c>
       <c r="M20">
-        <v>0.3522420050264401</v>
+        <v>0.3065939184185495</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.072056018968851</v>
+        <v>1.372063706828243</v>
       </c>
       <c r="C21">
-        <v>0.04343363424631264</v>
+        <v>0.1532071088403626</v>
       </c>
       <c r="D21">
-        <v>0.4938848271158065</v>
+        <v>0.332755500720026</v>
       </c>
       <c r="E21">
-        <v>0.1400953194558614</v>
+        <v>0.0616919460867198</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.410799195418974</v>
+        <v>2.737466959666506</v>
       </c>
       <c r="H21">
-        <v>2.563294266693845</v>
+        <v>1.613481791895993</v>
       </c>
       <c r="I21">
-        <v>2.690408036752046</v>
+        <v>1.860990113270475</v>
       </c>
       <c r="J21">
-        <v>0.04583887333262027</v>
+        <v>0.02651738498857803</v>
       </c>
       <c r="K21">
-        <v>0.8274104003320417</v>
+        <v>1.355228272913308</v>
       </c>
       <c r="L21">
-        <v>0.5033522714768282</v>
+        <v>0.3292365744002552</v>
       </c>
       <c r="M21">
-        <v>0.358583069048457</v>
+        <v>0.3412062426968774</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.093170347875315</v>
+        <v>1.47474927926163</v>
       </c>
       <c r="C22">
-        <v>0.04659948879741194</v>
+        <v>0.1650846121047778</v>
       </c>
       <c r="D22">
-        <v>0.4962635780158848</v>
+        <v>0.3484482124659394</v>
       </c>
       <c r="E22">
-        <v>0.1400352497275712</v>
+        <v>0.06275260352769507</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.430854750396719</v>
+        <v>2.839268362845928</v>
       </c>
       <c r="H22">
-        <v>2.569231276611191</v>
+        <v>1.655200454087122</v>
       </c>
       <c r="I22">
-        <v>2.699245198899931</v>
+        <v>1.912323138468651</v>
       </c>
       <c r="J22">
-        <v>0.04604040580010427</v>
+        <v>0.02703636050310365</v>
       </c>
       <c r="K22">
-        <v>0.8504463543513623</v>
+        <v>1.460213998728847</v>
       </c>
       <c r="L22">
-        <v>0.505640452596225</v>
+        <v>0.3451693208795916</v>
       </c>
       <c r="M22">
-        <v>0.3628790558452692</v>
+        <v>0.3642922428348996</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.081854522339967</v>
+        <v>1.419774240388165</v>
       </c>
       <c r="C23">
-        <v>0.04490979492204872</v>
+        <v>0.1587265766067674</v>
       </c>
       <c r="D23">
-        <v>0.4949795694764703</v>
+        <v>0.3400302045061352</v>
       </c>
       <c r="E23">
-        <v>0.1400646814569981</v>
+        <v>0.06218114491448468</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.420064971531929</v>
+        <v>2.784562799898254</v>
       </c>
       <c r="H23">
-        <v>2.566007548925114</v>
+        <v>1.632744758355983</v>
       </c>
       <c r="I23">
-        <v>2.694470260746172</v>
+        <v>1.884702158492502</v>
       </c>
       <c r="J23">
-        <v>0.04593324319892744</v>
+        <v>0.02675890037542317</v>
       </c>
       <c r="K23">
-        <v>0.8381142345844523</v>
+        <v>1.404010933638375</v>
       </c>
       <c r="L23">
-        <v>0.5044041772021188</v>
+        <v>0.3366219708555462</v>
       </c>
       <c r="M23">
-        <v>0.3605723519083028</v>
+        <v>0.3519253288406006</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.040025698423051</v>
+        <v>1.215084921332789</v>
       </c>
       <c r="C24">
-        <v>0.03851051656387483</v>
+        <v>0.1350284491424816</v>
       </c>
       <c r="D24">
-        <v>0.4904338808778306</v>
+        <v>0.3090421198262021</v>
       </c>
       <c r="E24">
-        <v>0.1402339937108028</v>
+        <v>0.06013123490562222</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.38108381115282</v>
+        <v>2.585184074584078</v>
       </c>
       <c r="H24">
-        <v>2.555007674887605</v>
+        <v>1.55169576974285</v>
       </c>
       <c r="I24">
-        <v>2.67766852096868</v>
+        <v>1.784799705774176</v>
       </c>
       <c r="J24">
-        <v>0.04551858439745438</v>
+        <v>0.02571707727336126</v>
       </c>
       <c r="K24">
-        <v>0.7922309927687081</v>
+        <v>1.194665065574895</v>
       </c>
       <c r="L24">
-        <v>0.5000525875449142</v>
+        <v>0.3051689094575636</v>
       </c>
       <c r="M24">
-        <v>0.3521409316825981</v>
+        <v>0.3060354118275868</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.997114985354898</v>
+        <v>1.000565961207684</v>
       </c>
       <c r="C25">
-        <v>0.03160682333266607</v>
+        <v>0.1101003290535374</v>
       </c>
       <c r="D25">
-        <v>0.4862110440832765</v>
+        <v>0.2772875046700847</v>
       </c>
       <c r="E25">
-        <v>0.1405408192418829</v>
+        <v>0.05814379634258238</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.343057140042617</v>
+        <v>2.38462881500746</v>
       </c>
       <c r="H25">
-        <v>2.545729364381373</v>
+        <v>1.471817341308565</v>
       </c>
       <c r="I25">
-        <v>2.662285687050087</v>
+        <v>1.685886601642807</v>
       </c>
       <c r="J25">
-        <v>0.04505231959167055</v>
+        <v>0.02460444354592362</v>
       </c>
       <c r="K25">
-        <v>0.7445033261434446</v>
+        <v>0.9750284109119036</v>
       </c>
       <c r="L25">
-        <v>0.4960676480353783</v>
+        <v>0.2729535072520264</v>
       </c>
       <c r="M25">
-        <v>0.3437006294527123</v>
+        <v>0.2582562840643945</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8468552879800484</v>
+        <v>3.418773367612687</v>
       </c>
       <c r="C2">
-        <v>0.09212552363420912</v>
+        <v>0.6416829709701517</v>
       </c>
       <c r="D2">
-        <v>0.2551238319651219</v>
+        <v>0.1996843446197687</v>
       </c>
       <c r="E2">
-        <v>0.05685386023469619</v>
+        <v>0.06566279229010519</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.247450124535959</v>
+        <v>0.3232819596565477</v>
       </c>
       <c r="H2">
-        <v>1.418586432879323</v>
+        <v>2.663090990107086E-05</v>
       </c>
       <c r="I2">
-        <v>1.61956454508055</v>
+        <v>0.0005096622615550217</v>
       </c>
       <c r="J2">
-        <v>0.02378744656940857</v>
+        <v>0.2713677286595626</v>
       </c>
       <c r="K2">
-        <v>0.8173947356071949</v>
+        <v>0.2396022266544406</v>
       </c>
       <c r="L2">
-        <v>0.2504750359217311</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.224275465684773</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3624927830561973</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.202727533234949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.744815562513935</v>
+        <v>2.979757726238802</v>
       </c>
       <c r="C3">
-        <v>0.08010764301755557</v>
+        <v>0.5795410017776419</v>
       </c>
       <c r="D3">
-        <v>0.2407644292759983</v>
+        <v>0.1733794489622653</v>
       </c>
       <c r="E3">
-        <v>0.05607935456990809</v>
+        <v>0.06314133328712312</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.160142672957278</v>
+        <v>0.3051414455819952</v>
       </c>
       <c r="H3">
-        <v>1.385591477825642</v>
+        <v>6.46650294072737E-05</v>
       </c>
       <c r="I3">
-        <v>1.578186427837103</v>
+        <v>0.000445924052142832</v>
       </c>
       <c r="J3">
-        <v>0.02323192901092241</v>
+        <v>0.2680136915987248</v>
       </c>
       <c r="K3">
-        <v>0.7125678605008261</v>
+        <v>0.2470570509152346</v>
       </c>
       <c r="L3">
-        <v>0.2359131500724772</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2018693235787481</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.3191646305740363</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.156914337342585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6830612224229071</v>
+        <v>2.709735495959364</v>
       </c>
       <c r="C4">
-        <v>0.07278772313327408</v>
+        <v>0.5415606357952925</v>
       </c>
       <c r="D4">
-        <v>0.2322443970763715</v>
+        <v>0.1573491450971289</v>
       </c>
       <c r="E4">
-        <v>0.05565044007638598</v>
+        <v>0.06156159622924218</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.109062593194039</v>
+        <v>0.2944937828275442</v>
       </c>
       <c r="H4">
-        <v>1.366731142966614</v>
+        <v>0.0002699805696296798</v>
       </c>
       <c r="I4">
-        <v>1.554393510201294</v>
+        <v>0.0006220706112776142</v>
       </c>
       <c r="J4">
-        <v>0.02288898155529306</v>
+        <v>0.2662890444757977</v>
       </c>
       <c r="K4">
-        <v>0.6490293809694379</v>
+        <v>0.2520080002049045</v>
       </c>
       <c r="L4">
-        <v>0.2272728984299306</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1883818936773558</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2925983737132327</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.130516929762393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6581009840253671</v>
+        <v>2.599549847572177</v>
       </c>
       <c r="C5">
-        <v>0.06981670492292835</v>
+        <v>0.526923958205515</v>
       </c>
       <c r="D5">
-        <v>0.2288430003948747</v>
+        <v>0.1508427539144748</v>
       </c>
       <c r="E5">
-        <v>0.05548703283506562</v>
+        <v>0.06086580979123912</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.088846118618491</v>
+        <v>0.289778969753371</v>
       </c>
       <c r="H5">
-        <v>1.359380544533977</v>
+        <v>0.0003975859372683521</v>
       </c>
       <c r="I5">
-        <v>1.54508318614463</v>
+        <v>0.0008128976676022859</v>
       </c>
       <c r="J5">
-        <v>0.02274863074698263</v>
+        <v>0.2654096613710522</v>
       </c>
       <c r="K5">
-        <v>0.6233224816014058</v>
+        <v>0.2537981652219905</v>
       </c>
       <c r="L5">
-        <v>0.2238233776985723</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1829484868899094</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2818778278386134</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.118590993140145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6539681640079209</v>
+        <v>2.58122343108937</v>
       </c>
       <c r="C6">
-        <v>0.06932400614955725</v>
+        <v>0.5254800612351573</v>
       </c>
       <c r="D6">
-        <v>0.2282823512635588</v>
+        <v>0.1497629594448426</v>
       </c>
       <c r="E6">
-        <v>0.05546057667189075</v>
+        <v>0.06069639081965583</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.085524349238042</v>
+        <v>0.2884026287947137</v>
       </c>
       <c r="H6">
-        <v>1.358179759602706</v>
+        <v>0.0004222015726440542</v>
       </c>
       <c r="I6">
-        <v>1.543559928009884</v>
+        <v>0.0009380247555048626</v>
       </c>
       <c r="J6">
-        <v>0.02272528591751488</v>
+        <v>0.2649540762180607</v>
       </c>
       <c r="K6">
-        <v>0.6190644584176113</v>
+        <v>0.2537134546544504</v>
       </c>
       <c r="L6">
-        <v>0.2232547853844835</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1820499263738924</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2802194225370869</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.114704201980871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6827237957490127</v>
+        <v>2.708188785434345</v>
       </c>
       <c r="C7">
-        <v>0.07274761049045253</v>
+        <v>0.5440607048680306</v>
       </c>
       <c r="D7">
-        <v>0.2321982439915615</v>
+        <v>0.1572586313667159</v>
       </c>
       <c r="E7">
-        <v>0.05564819068070648</v>
+        <v>0.06140680188021808</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.108787567589971</v>
+        <v>0.2927899268580774</v>
       </c>
       <c r="H7">
-        <v>1.366630674414381</v>
+        <v>0.0002733794308804605</v>
       </c>
       <c r="I7">
-        <v>1.554266412944074</v>
+        <v>0.0008557468791536849</v>
       </c>
       <c r="J7">
-        <v>0.02288709131772215</v>
+        <v>0.2654193565359435</v>
       </c>
       <c r="K7">
-        <v>0.6486819656170724</v>
+        <v>0.250976489805474</v>
       </c>
       <c r="L7">
-        <v>0.2272260930274186</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.188308368927796</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2927864217323588</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.125082451856912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8114725712008521</v>
+        <v>3.267399456809528</v>
       </c>
       <c r="C8">
-        <v>0.08796764792271006</v>
+        <v>0.6238328881727568</v>
       </c>
       <c r="D8">
-        <v>0.2501086284586904</v>
+        <v>0.1905830426915003</v>
       </c>
       <c r="E8">
-        <v>0.05657691518791985</v>
+        <v>0.06460897905936225</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.216799406532317</v>
+        <v>0.3147515562551462</v>
       </c>
       <c r="H8">
-        <v>1.406909163487455</v>
+        <v>3.576164859797615E-07</v>
       </c>
       <c r="I8">
-        <v>1.604949933428813</v>
+        <v>0.0007162533386422254</v>
       </c>
       <c r="J8">
-        <v>0.02359620854924938</v>
+        <v>0.2690106367323324</v>
       </c>
       <c r="K8">
-        <v>0.7810653128011324</v>
+        <v>0.2407125913209214</v>
       </c>
       <c r="L8">
-        <v>0.2453890586787111</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2164906237358366</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3479881356750241</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.179595038713472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.072095893306312</v>
+        <v>4.361222866207186</v>
       </c>
       <c r="C9">
-        <v>0.1184280391914427</v>
+        <v>0.7770264919647616</v>
       </c>
       <c r="D9">
-        <v>0.2877811533397221</v>
+        <v>0.257069771153752</v>
       </c>
       <c r="E9">
-        <v>0.05878513247029815</v>
+        <v>0.07091338036425121</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.450431619874649</v>
+        <v>0.3650292327060356</v>
       </c>
       <c r="H9">
-        <v>1.497800141537482</v>
+        <v>0.001029478577993514</v>
       </c>
       <c r="I9">
-        <v>1.718125367553597</v>
+        <v>0.001950451411403265</v>
       </c>
       <c r="J9">
-        <v>0.02497842982798204</v>
+        <v>0.2804026308232892</v>
       </c>
       <c r="K9">
-        <v>1.048301737368206</v>
+        <v>0.225584856494077</v>
       </c>
       <c r="L9">
-        <v>0.283597924274531</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.274146858430445</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4560845520540511</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.310816877032039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.270090435721102</v>
+        <v>5.163791848260871</v>
       </c>
       <c r="C10">
-        <v>0.1414023407341318</v>
+        <v>0.9024586598706037</v>
       </c>
       <c r="D10">
-        <v>0.3173103995080169</v>
+        <v>0.3068305329221914</v>
       </c>
       <c r="E10">
-        <v>0.06066906316010545</v>
+        <v>0.07293486150492612</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.638057852214359</v>
+        <v>0.3963402252892934</v>
       </c>
       <c r="H10">
-        <v>1.573054576998459</v>
+        <v>0.002964153968161298</v>
       </c>
       <c r="I10">
-        <v>1.81116346725922</v>
+        <v>0.004264473935760016</v>
       </c>
       <c r="J10">
-        <v>0.02599860039934043</v>
+        <v>0.2862483051492717</v>
       </c>
       <c r="K10">
-        <v>1.250938170546078</v>
+        <v>0.2117102105622344</v>
       </c>
       <c r="L10">
-        <v>0.3135596291620999</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3183413976540947</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.515984062287572</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.389967152299079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.361956996886448</v>
+        <v>5.524754154804157</v>
       </c>
       <c r="C11">
-        <v>0.1520376503133747</v>
+        <v>1.058158788228155</v>
       </c>
       <c r="D11">
-        <v>0.331218301738943</v>
+        <v>0.329471967247926</v>
       </c>
       <c r="E11">
-        <v>0.061589155607086</v>
+        <v>0.06053874835997775</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.727537170538369</v>
+        <v>0.3419457552671332</v>
       </c>
       <c r="H11">
-        <v>1.609428968688917</v>
+        <v>0.02154746775026695</v>
       </c>
       <c r="I11">
-        <v>1.855998936715366</v>
+        <v>0.005589183938633724</v>
       </c>
       <c r="J11">
-        <v>0.02646613108725226</v>
+        <v>0.2538078473682788</v>
       </c>
       <c r="K11">
-        <v>1.344893579346405</v>
+        <v>0.1700748417094715</v>
       </c>
       <c r="L11">
-        <v>0.3276761104488486</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3389372619902673</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3821469775027708</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.206964721794435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.397037483366489</v>
+        <v>5.66005399924228</v>
       </c>
       <c r="C12">
-        <v>0.1560964621613579</v>
+        <v>1.166276824559418</v>
       </c>
       <c r="D12">
-        <v>0.3365597205919357</v>
+        <v>0.3379966290938086</v>
       </c>
       <c r="E12">
-        <v>0.06194720998757752</v>
+        <v>0.06043228399962608</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.762073994661478</v>
+        <v>0.2945979157036049</v>
       </c>
       <c r="H12">
-        <v>1.623538191456788</v>
+        <v>0.06002771179051081</v>
       </c>
       <c r="I12">
-        <v>1.87337138947656</v>
+        <v>0.005792891416479762</v>
       </c>
       <c r="J12">
-        <v>0.02664389263620315</v>
+        <v>0.2276036342646677</v>
       </c>
       <c r="K12">
-        <v>1.380764059127102</v>
+        <v>0.1441205421373013</v>
       </c>
       <c r="L12">
-        <v>0.3330985566377223</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3468154609734952</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.274361389187149</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.051814324775052</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.389468682469357</v>
+        <v>5.628017855607482</v>
       </c>
       <c r="C13">
-        <v>0.1552208413143887</v>
+        <v>1.247115155922017</v>
       </c>
       <c r="D13">
-        <v>0.3354059139553129</v>
+        <v>0.3359799128058825</v>
       </c>
       <c r="E13">
-        <v>0.06186965851974335</v>
+        <v>0.06928316290271219</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.754605826046003</v>
+        <v>0.2472125052428993</v>
       </c>
       <c r="H13">
-        <v>1.620484157407191</v>
+        <v>0.1153790678077229</v>
       </c>
       <c r="I13">
-        <v>1.869611829131486</v>
+        <v>0.005426050838217122</v>
       </c>
       <c r="J13">
-        <v>0.02660557280586495</v>
+        <v>0.2032264499835108</v>
       </c>
       <c r="K13">
-        <v>1.373025125102657</v>
+        <v>0.1267927436410279</v>
       </c>
       <c r="L13">
-        <v>0.3319272025751729</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3451150961972189</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1814305393657989</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9003037121124748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.364837018800642</v>
+        <v>5.529743849948375</v>
       </c>
       <c r="C14">
-        <v>0.152370910702686</v>
+        <v>1.292637479478856</v>
       </c>
       <c r="D14">
-        <v>0.3316562050734007</v>
+        <v>0.3297947057447601</v>
       </c>
       <c r="E14">
-        <v>0.06161841644140864</v>
+        <v>0.0807961115354523</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.730365089699006</v>
+        <v>0.2142870476069945</v>
       </c>
       <c r="H14">
-        <v>1.610582863736596</v>
+        <v>0.1643807477626211</v>
       </c>
       <c r="I14">
-        <v>1.857420077945875</v>
+        <v>0.005006325590917626</v>
       </c>
       <c r="J14">
-        <v>0.02648073989964672</v>
+        <v>0.1870690260910663</v>
       </c>
       <c r="K14">
-        <v>1.347838600816715</v>
+        <v>0.1190562735406742</v>
       </c>
       <c r="L14">
-        <v>0.328120636906263</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3395837727383153</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1261934726111136</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7966134332428965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.349788585392815</v>
+        <v>5.470057689522662</v>
       </c>
       <c r="C15">
-        <v>0.1506294974087297</v>
+        <v>1.298133680333308</v>
       </c>
       <c r="D15">
-        <v>0.3293693440381702</v>
+        <v>0.3260435454196084</v>
       </c>
       <c r="E15">
-        <v>0.06146579580720513</v>
+        <v>0.0841349908273461</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.715603829662683</v>
+        <v>0.2055090870845078</v>
       </c>
       <c r="H15">
-        <v>1.604562515994758</v>
+        <v>0.1767322248015546</v>
       </c>
       <c r="I15">
-        <v>1.850004650445271</v>
+        <v>0.004891930901808728</v>
       </c>
       <c r="J15">
-        <v>0.02640437658834394</v>
+        <v>0.1831564049895746</v>
       </c>
       <c r="K15">
-        <v>1.33245023948362</v>
+        <v>0.1182486329381103</v>
       </c>
       <c r="L15">
-        <v>0.3257992263225447</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3362062240404953</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1137183950655896</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7697742145187334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.264125760924571</v>
+        <v>5.129877243975216</v>
       </c>
       <c r="C16">
-        <v>0.1407114180865818</v>
+        <v>1.226121207340441</v>
       </c>
       <c r="D16">
-        <v>0.3164115849813953</v>
+        <v>0.3047392644568276</v>
       </c>
       <c r="E16">
-        <v>0.06061024945316618</v>
+        <v>0.08105674466271218</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.632298179106158</v>
+        <v>0.2008466061366363</v>
       </c>
       <c r="H16">
-        <v>1.570722770943661</v>
+        <v>0.163188465742536</v>
       </c>
       <c r="I16">
-        <v>1.80828666594293</v>
+        <v>0.003966796465888045</v>
       </c>
       <c r="J16">
-        <v>0.0259681340386404</v>
+        <v>0.184977511570267</v>
       </c>
       <c r="K16">
-        <v>1.244836714643327</v>
+        <v>0.1265706469014587</v>
       </c>
       <c r="L16">
-        <v>0.3126474499414229</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3170059938822121</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1098880016023855</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.763476198259383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.212058159741048</v>
+        <v>4.921859175833731</v>
       </c>
       <c r="C17">
-        <v>0.1346775560738109</v>
+        <v>1.146886133493155</v>
       </c>
       <c r="D17">
-        <v>0.3085885063462399</v>
+        <v>0.2917771455076661</v>
       </c>
       <c r="E17">
-        <v>0.06010194267398106</v>
+        <v>0.0717184408162872</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.58229057559717</v>
+        <v>0.2144859067872744</v>
       </c>
       <c r="H17">
-        <v>1.550530065656375</v>
+        <v>0.1249955040893695</v>
       </c>
       <c r="I17">
-        <v>1.783359978153811</v>
+        <v>0.003537812727667067</v>
       </c>
       <c r="J17">
-        <v>0.02570154782626943</v>
+        <v>0.1948766788486722</v>
       </c>
       <c r="K17">
-        <v>1.191568126847159</v>
+        <v>0.1367594238650494</v>
       </c>
       <c r="L17">
-        <v>0.3047086107749095</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.305358850464593</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1341485049687421</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8129756958769292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.182277258830851</v>
+        <v>4.803358644822765</v>
       </c>
       <c r="C18">
-        <v>0.1312240501420092</v>
+        <v>1.052596218758111</v>
       </c>
       <c r="D18">
-        <v>0.3041331562014449</v>
+        <v>0.2844126053181242</v>
       </c>
       <c r="E18">
-        <v>0.05981547916184304</v>
+        <v>0.06091848803969491</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.553912131797716</v>
+        <v>0.2478802552718236</v>
       </c>
       <c r="H18">
-        <v>1.53911548725543</v>
+        <v>0.07209342758206105</v>
       </c>
       <c r="I18">
-        <v>1.769257100059065</v>
+        <v>0.003158796129369534</v>
       </c>
       <c r="J18">
-        <v>0.02554852468119684</v>
+        <v>0.2140083979883372</v>
       </c>
       <c r="K18">
-        <v>1.161094157440488</v>
+        <v>0.1524242612756215</v>
       </c>
       <c r="L18">
-        <v>0.3001877709841096</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.29870544832972</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.194569830781532</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9237462846141682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.172221652079145</v>
+        <v>4.765031421630624</v>
       </c>
       <c r="C19">
-        <v>0.1300575306043186</v>
+        <v>0.9636987891023523</v>
       </c>
       <c r="D19">
-        <v>0.3026320668301992</v>
+        <v>0.2820292134525459</v>
       </c>
       <c r="E19">
-        <v>0.05971948466008747</v>
+        <v>0.05725677113961669</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.544368009798177</v>
+        <v>0.2948681123678725</v>
       </c>
       <c r="H19">
-        <v>1.535284222554367</v>
+        <v>0.02713470137725693</v>
       </c>
       <c r="I19">
-        <v>1.764521389884024</v>
+        <v>0.00334858398597504</v>
       </c>
       <c r="J19">
-        <v>0.02549676055297923</v>
+        <v>0.2390237711316701</v>
       </c>
       <c r="K19">
-        <v>1.150803430675182</v>
+        <v>0.1739464873981085</v>
       </c>
       <c r="L19">
-        <v>0.2986646860122022</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2964603332043581</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2946079254748781</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.07570956073441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.217583323158266</v>
+        <v>4.952785314925165</v>
       </c>
       <c r="C20">
-        <v>0.1353180758704298</v>
+        <v>0.8786559130731177</v>
       </c>
       <c r="D20">
-        <v>0.3094166585079989</v>
+        <v>0.293675610389883</v>
       </c>
       <c r="E20">
-        <v>0.06015543812605273</v>
+        <v>0.07187868554570009</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.58757375133942</v>
+        <v>0.3824938549209804</v>
       </c>
       <c r="H20">
-        <v>1.552658753032404</v>
+        <v>0.002342382369311391</v>
       </c>
       <c r="I20">
-        <v>1.785988988426183</v>
+        <v>0.004265733884085243</v>
       </c>
       <c r="J20">
-        <v>0.02572989274452198</v>
+        <v>0.2817879513422952</v>
       </c>
       <c r="K20">
-        <v>1.197221358986525</v>
+        <v>0.2119043903334408</v>
       </c>
       <c r="L20">
-        <v>0.3055489704333496</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3065939184185495</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.5004422576527929</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.351138247250674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.372063706828243</v>
+        <v>5.569577254854153</v>
       </c>
       <c r="C21">
-        <v>0.1532071088403626</v>
+        <v>0.9580844706461846</v>
       </c>
       <c r="D21">
-        <v>0.332755500720026</v>
+        <v>0.3322788350703831</v>
       </c>
       <c r="E21">
-        <v>0.0616919460867198</v>
+        <v>0.07724128190944235</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.737466959666506</v>
+        <v>0.4211316100848848</v>
       </c>
       <c r="H21">
-        <v>1.613481791895993</v>
+        <v>0.004168581608719524</v>
       </c>
       <c r="I21">
-        <v>1.860990113270475</v>
+        <v>0.00644186647937417</v>
       </c>
       <c r="J21">
-        <v>0.02651738498857803</v>
+        <v>0.2938448964667231</v>
       </c>
       <c r="K21">
-        <v>1.355228272913308</v>
+        <v>0.2095453501926521</v>
       </c>
       <c r="L21">
-        <v>0.3292365744002552</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3412062426968774</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5776269368308107</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.45868978644296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.47474927926163</v>
+        <v>5.972888275399157</v>
       </c>
       <c r="C22">
-        <v>0.1650846121047778</v>
+        <v>1.011846003336586</v>
       </c>
       <c r="D22">
-        <v>0.3484482124659394</v>
+        <v>0.3577550988061091</v>
       </c>
       <c r="E22">
-        <v>0.06275260352769507</v>
+        <v>0.07968623555181331</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.839268362845928</v>
+        <v>0.4452048599197127</v>
       </c>
       <c r="H22">
-        <v>1.655200454087122</v>
+        <v>0.005646257032624835</v>
       </c>
       <c r="I22">
-        <v>1.912323138468651</v>
+        <v>0.007874289031889248</v>
       </c>
       <c r="J22">
-        <v>0.02703636050310365</v>
+        <v>0.3011802582178973</v>
       </c>
       <c r="K22">
-        <v>1.460213998728847</v>
+        <v>0.2075362272710244</v>
       </c>
       <c r="L22">
-        <v>0.3451693208795916</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3642922428348996</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6175087973447546</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.52533349210637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.419774240388165</v>
+        <v>5.757696063567664</v>
       </c>
       <c r="C23">
-        <v>0.1587265766067674</v>
+        <v>0.979759867649733</v>
       </c>
       <c r="D23">
-        <v>0.3400302045061352</v>
+        <v>0.3441382497577763</v>
       </c>
       <c r="E23">
-        <v>0.06218114491448468</v>
+        <v>0.07854773313843033</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.784562799898254</v>
+        <v>0.434201789433331</v>
       </c>
       <c r="H23">
-        <v>1.632744758355983</v>
+        <v>0.004838971348513743</v>
       </c>
       <c r="I23">
-        <v>1.884702158492502</v>
+        <v>0.006810782759826495</v>
       </c>
       <c r="J23">
-        <v>0.02675890037542317</v>
+        <v>0.2982110213869049</v>
       </c>
       <c r="K23">
-        <v>1.404010933638375</v>
+        <v>0.209738914809769</v>
       </c>
       <c r="L23">
-        <v>0.3366219708555462</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3519253288406006</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5957990248592182</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.495656786225055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.215084921332789</v>
+        <v>4.94324287381977</v>
       </c>
       <c r="C24">
-        <v>0.1350284491424816</v>
+        <v>0.8642515038020804</v>
       </c>
       <c r="D24">
-        <v>0.3090421198262021</v>
+        <v>0.2930786644142245</v>
       </c>
       <c r="E24">
-        <v>0.06013123490562222</v>
+        <v>0.07395750637693865</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.585184074584078</v>
+        <v>0.3911203646143377</v>
       </c>
       <c r="H24">
-        <v>1.55169576974285</v>
+        <v>0.002299071250693951</v>
       </c>
       <c r="I24">
-        <v>1.784799705774176</v>
+        <v>0.003822638084293395</v>
       </c>
       <c r="J24">
-        <v>0.02571707727336126</v>
+        <v>0.2863364991213757</v>
       </c>
       <c r="K24">
-        <v>1.194665065574895</v>
+        <v>0.2172399506449345</v>
       </c>
       <c r="L24">
-        <v>0.3051689094575636</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3060354118275868</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.514548229402763</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.378942965708404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.000565961207684</v>
+        <v>4.065368209803239</v>
       </c>
       <c r="C25">
-        <v>0.1101003290535374</v>
+        <v>0.7403942712869025</v>
       </c>
       <c r="D25">
-        <v>0.2772875046700847</v>
+        <v>0.2389301538379698</v>
       </c>
       <c r="E25">
-        <v>0.05814379634258238</v>
+        <v>0.06897279332708983</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.38462881500746</v>
+        <v>0.347958816349049</v>
       </c>
       <c r="H25">
-        <v>1.471817341308565</v>
+        <v>0.0005621916055176257</v>
       </c>
       <c r="I25">
-        <v>1.685886601642807</v>
+        <v>0.001787363565417088</v>
       </c>
       <c r="J25">
-        <v>0.02460444354592362</v>
+        <v>0.2754631702820944</v>
       </c>
       <c r="K25">
-        <v>0.9750284109119036</v>
+        <v>0.2274664302383123</v>
       </c>
       <c r="L25">
-        <v>0.2729535072520264</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2582562840643945</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.4273857822159641</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.26408219742072</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_14/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_14/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.418773367612687</v>
+        <v>3.422441348505572</v>
       </c>
       <c r="C2">
-        <v>0.6416829709701517</v>
+        <v>0.6590179972552903</v>
       </c>
       <c r="D2">
-        <v>0.1996843446197687</v>
+        <v>0.1997175584765358</v>
       </c>
       <c r="E2">
-        <v>0.06566279229010519</v>
+        <v>0.06256496908466325</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3232819596565477</v>
+        <v>0.284582055014404</v>
       </c>
       <c r="H2">
-        <v>2.663090990107086E-05</v>
+        <v>5.617195864537905E-05</v>
       </c>
       <c r="I2">
-        <v>0.0005096622615550217</v>
+        <v>0.0006860374391930435</v>
       </c>
       <c r="J2">
-        <v>0.2713677286595626</v>
+        <v>0.300580387027459</v>
       </c>
       <c r="K2">
-        <v>0.2396022266544406</v>
+        <v>0.2216394144425102</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1268420168617155</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0497645888602225</v>
       </c>
       <c r="N2">
-        <v>0.3624927830561973</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3689057789457451</v>
       </c>
       <c r="Q2">
-        <v>1.202727533234949</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.135864223746722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.979757726238802</v>
+        <v>2.984129641565801</v>
       </c>
       <c r="C3">
-        <v>0.5795410017776419</v>
+        <v>0.5875611838378347</v>
       </c>
       <c r="D3">
-        <v>0.1733794489622653</v>
+        <v>0.173457887464366</v>
       </c>
       <c r="E3">
-        <v>0.06314133328712312</v>
+        <v>0.06053233241266209</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3051414455819952</v>
+        <v>0.2701346502509239</v>
       </c>
       <c r="H3">
-        <v>6.46650294072737E-05</v>
+        <v>2.280354270289831E-05</v>
       </c>
       <c r="I3">
-        <v>0.000445924052142832</v>
+        <v>0.0005043835267839469</v>
       </c>
       <c r="J3">
-        <v>0.2680136915987248</v>
+        <v>0.2968224440338005</v>
       </c>
       <c r="K3">
-        <v>0.2470570509152346</v>
+        <v>0.2301981739041121</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1327602363199158</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05134430335585982</v>
       </c>
       <c r="N3">
-        <v>0.3191646305740363</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.324943369120291</v>
       </c>
       <c r="Q3">
-        <v>1.156914337342585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.100877931921019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.709735495959364</v>
+        <v>2.714421069775426</v>
       </c>
       <c r="C4">
-        <v>0.5415606357952925</v>
+        <v>0.5440427596634834</v>
       </c>
       <c r="D4">
-        <v>0.1573491450971289</v>
+        <v>0.1574479714591632</v>
       </c>
       <c r="E4">
-        <v>0.06156159622924218</v>
+        <v>0.05925122670517879</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2944937828275442</v>
+        <v>0.2617326857319071</v>
       </c>
       <c r="H4">
-        <v>0.0002699805696296798</v>
+        <v>0.0001581586677394942</v>
       </c>
       <c r="I4">
-        <v>0.0006220706112776142</v>
+        <v>0.0005732728288383449</v>
       </c>
       <c r="J4">
-        <v>0.2662890444757977</v>
+        <v>0.2946353958955683</v>
       </c>
       <c r="K4">
-        <v>0.2520080002049045</v>
+        <v>0.2357464436236345</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1365792397631225</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05286101426277146</v>
       </c>
       <c r="N4">
-        <v>0.2925983737132327</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2979986380397293</v>
       </c>
       <c r="Q4">
-        <v>1.130516929762393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.080680945031588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.599549847572177</v>
+        <v>2.604336031437242</v>
       </c>
       <c r="C5">
-        <v>0.526923958205515</v>
+        <v>0.5271980069950644</v>
       </c>
       <c r="D5">
-        <v>0.1508427539144748</v>
+        <v>0.1509483042763691</v>
       </c>
       <c r="E5">
-        <v>0.06086580979123912</v>
+        <v>0.05867998709719746</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.289778969753371</v>
+        <v>0.2579604920306053</v>
       </c>
       <c r="H5">
-        <v>0.0003975859372683521</v>
+        <v>0.0002509034955791023</v>
       </c>
       <c r="I5">
-        <v>0.0008128976676022859</v>
+        <v>0.0007246346645608526</v>
       </c>
       <c r="J5">
-        <v>0.2654096613710522</v>
+        <v>0.2935210013679708</v>
       </c>
       <c r="K5">
-        <v>0.2537981652219905</v>
+        <v>0.2377897077186493</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.138022065473292</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.05355620968527397</v>
       </c>
       <c r="N5">
-        <v>0.2818778278386134</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2871240897550393</v>
       </c>
       <c r="Q5">
-        <v>1.118590993140145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.071262348846318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.58122343108937</v>
+        <v>2.586023842938403</v>
       </c>
       <c r="C6">
-        <v>0.5254800612351573</v>
+        <v>0.5253944116324476</v>
       </c>
       <c r="D6">
-        <v>0.1497629594448426</v>
+        <v>0.1498695724095285</v>
       </c>
       <c r="E6">
-        <v>0.06069639081965583</v>
+        <v>0.05853511809136247</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2884026287947137</v>
+        <v>0.2567814934074022</v>
       </c>
       <c r="H6">
-        <v>0.0004222015726440542</v>
+        <v>0.0002691754059889195</v>
       </c>
       <c r="I6">
-        <v>0.0009380247555048626</v>
+        <v>0.0008594821557323939</v>
       </c>
       <c r="J6">
-        <v>0.2649540762180607</v>
+        <v>0.293029903238768</v>
       </c>
       <c r="K6">
-        <v>0.2537134546544504</v>
+        <v>0.2377819047644234</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1380702997826315</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05360819956170637</v>
       </c>
       <c r="N6">
-        <v>0.2802194225370869</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2854367203596127</v>
       </c>
       <c r="Q6">
-        <v>1.114704201980871</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.067895160520365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.708188785434345</v>
+        <v>2.712843407239575</v>
       </c>
       <c r="C7">
-        <v>0.5440607048680306</v>
+        <v>0.5460542586255599</v>
       </c>
       <c r="D7">
-        <v>0.1572586313667159</v>
+        <v>0.1573552617277443</v>
       </c>
       <c r="E7">
-        <v>0.06140680188021808</v>
+        <v>0.05910858719397805</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2927899268580774</v>
+        <v>0.2625819605770729</v>
       </c>
       <c r="H7">
-        <v>0.0002733794308804605</v>
+        <v>0.0001614494715261872</v>
       </c>
       <c r="I7">
-        <v>0.0008557468791536849</v>
+        <v>0.0008504430536753205</v>
       </c>
       <c r="J7">
-        <v>0.2654193565359435</v>
+        <v>0.2897727789084357</v>
       </c>
       <c r="K7">
-        <v>0.250976489805474</v>
+        <v>0.2344762613974236</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1359002354416212</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05258573199756444</v>
       </c>
       <c r="N7">
-        <v>0.2927864217323588</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2981134211863719</v>
       </c>
       <c r="Q7">
-        <v>1.125082451856912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.072683975374076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.267399456809528</v>
+        <v>3.271228106434023</v>
       </c>
       <c r="C8">
-        <v>0.6238328881727568</v>
+        <v>0.6363694996230151</v>
       </c>
       <c r="D8">
-        <v>0.1905830426915003</v>
+        <v>0.1906246197409587</v>
       </c>
       <c r="E8">
-        <v>0.06460897905936225</v>
+        <v>0.0616978205400267</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3147515562551462</v>
+        <v>0.2856179161215664</v>
       </c>
       <c r="H8">
-        <v>3.576164859797615E-07</v>
+        <v>9.951556987353172E-06</v>
       </c>
       <c r="I8">
-        <v>0.0007162533386422254</v>
+        <v>0.0009123777380892761</v>
       </c>
       <c r="J8">
-        <v>0.2690106367323324</v>
+        <v>0.2851160580806038</v>
       </c>
       <c r="K8">
-        <v>0.2407125913209214</v>
+        <v>0.2221940749348406</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1277138377069829</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.04955588074484751</v>
       </c>
       <c r="N8">
-        <v>0.3479881356750241</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3539626606816739</v>
       </c>
       <c r="Q8">
-        <v>1.179595038713472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.107426165387835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.361222866207186</v>
+        <v>4.362432784315104</v>
       </c>
       <c r="C9">
-        <v>0.7770264919647616</v>
+        <v>0.8133388456435569</v>
       </c>
       <c r="D9">
-        <v>0.257069771153752</v>
+        <v>0.2569406970921335</v>
       </c>
       <c r="E9">
-        <v>0.07091338036425121</v>
+        <v>0.0667636149222961</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3650292327060356</v>
+        <v>0.328738978479322</v>
       </c>
       <c r="H9">
-        <v>0.001029478577993514</v>
+        <v>0.001048876550226341</v>
       </c>
       <c r="I9">
-        <v>0.001950451411403265</v>
+        <v>0.002163347219161338</v>
       </c>
       <c r="J9">
-        <v>0.2804026308232892</v>
+        <v>0.2926309902307693</v>
       </c>
       <c r="K9">
-        <v>0.225584856494077</v>
+        <v>0.2034688600096395</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1145959587627257</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04878557732450872</v>
       </c>
       <c r="N9">
-        <v>0.4560845520540511</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4636353360966297</v>
       </c>
       <c r="Q9">
-        <v>1.310816877032039</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.206034395581014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.163791848260871</v>
+        <v>5.161994441608897</v>
       </c>
       <c r="C10">
-        <v>0.9024586598706037</v>
+        <v>0.9532366866494328</v>
       </c>
       <c r="D10">
-        <v>0.3068305329221914</v>
+        <v>0.306496552585287</v>
       </c>
       <c r="E10">
-        <v>0.07293486150492612</v>
+        <v>0.06816256956044509</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3963402252892934</v>
+        <v>0.3705907924425702</v>
       </c>
       <c r="H10">
-        <v>0.002964153968161298</v>
+        <v>0.002818460912817677</v>
       </c>
       <c r="I10">
-        <v>0.004264473935760016</v>
+        <v>0.004274100443496742</v>
       </c>
       <c r="J10">
-        <v>0.2862483051492717</v>
+        <v>0.2738074985732482</v>
       </c>
       <c r="K10">
-        <v>0.2117102105622344</v>
+        <v>0.1858896712436398</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1039580601642758</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.04877849778388388</v>
       </c>
       <c r="N10">
-        <v>0.515984062287572</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5239926886281268</v>
       </c>
       <c r="Q10">
-        <v>1.389967152299079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.246539689252302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.524754154804157</v>
+        <v>5.521448268680501</v>
       </c>
       <c r="C11">
-        <v>1.058158788228155</v>
+        <v>1.099985836864363</v>
       </c>
       <c r="D11">
-        <v>0.329471967247926</v>
+        <v>0.3290181849814644</v>
       </c>
       <c r="E11">
-        <v>0.06053874835997775</v>
+        <v>0.05751869395681297</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3419457552671332</v>
+        <v>0.3538818041379557</v>
       </c>
       <c r="H11">
-        <v>0.02154746775026695</v>
+        <v>0.02132477429530866</v>
       </c>
       <c r="I11">
-        <v>0.005589183938633724</v>
+        <v>0.005553854211663989</v>
       </c>
       <c r="J11">
-        <v>0.2538078473682788</v>
+        <v>0.2101220710334317</v>
       </c>
       <c r="K11">
-        <v>0.1700748417094715</v>
+        <v>0.1495858135222132</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09015070204063758</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03670790532989265</v>
       </c>
       <c r="N11">
-        <v>0.3821469775027708</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3871325173110591</v>
       </c>
       <c r="Q11">
-        <v>1.206964721794435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.056822747589621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.66005399924228</v>
+        <v>5.656277990455806</v>
       </c>
       <c r="C12">
-        <v>1.166276824559418</v>
+        <v>1.197101867621825</v>
       </c>
       <c r="D12">
-        <v>0.3379966290938086</v>
+        <v>0.3375008529909849</v>
       </c>
       <c r="E12">
-        <v>0.06043228399962608</v>
+        <v>0.05841954987337594</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.2945979157036049</v>
+        <v>0.3244223118610705</v>
       </c>
       <c r="H12">
-        <v>0.06002771179051081</v>
+        <v>0.05979072172320343</v>
       </c>
       <c r="I12">
-        <v>0.005792891416479762</v>
+        <v>0.005708882813981297</v>
       </c>
       <c r="J12">
-        <v>0.2276036342646677</v>
+        <v>0.179274326376877</v>
       </c>
       <c r="K12">
-        <v>0.1441205421373013</v>
+        <v>0.1293864301045318</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08350085047992817</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.02869336512148735</v>
       </c>
       <c r="N12">
-        <v>0.274361389187149</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2773604270176833</v>
       </c>
       <c r="Q12">
-        <v>1.051814324775052</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.914116297555509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.628017855607482</v>
+        <v>5.624689440936038</v>
       </c>
       <c r="C13">
-        <v>1.247115155922017</v>
+        <v>1.266594336772755</v>
       </c>
       <c r="D13">
-        <v>0.3359799128058825</v>
+        <v>0.3355148854545433</v>
       </c>
       <c r="E13">
-        <v>0.06928316290271219</v>
+        <v>0.0678741507777243</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.2472125052428993</v>
+        <v>0.276208291192944</v>
       </c>
       <c r="H13">
-        <v>0.1153790678077229</v>
+        <v>0.1151789315510428</v>
       </c>
       <c r="I13">
-        <v>0.005426050838217122</v>
+        <v>0.00538448170658512</v>
       </c>
       <c r="J13">
-        <v>0.2032264499835108</v>
+        <v>0.1687729528248809</v>
       </c>
       <c r="K13">
-        <v>0.1267927436410279</v>
+        <v>0.1181581937320555</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08036924208118124</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02308484288237533</v>
       </c>
       <c r="N13">
-        <v>0.1814305393657989</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1831245462022224</v>
       </c>
       <c r="Q13">
-        <v>0.9003037121124748</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.7939691268304472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.529743849948375</v>
+        <v>5.527113731080135</v>
       </c>
       <c r="C14">
-        <v>1.292637479478856</v>
+        <v>1.303941735900821</v>
       </c>
       <c r="D14">
-        <v>0.3297947057447601</v>
+        <v>0.3293822366753147</v>
       </c>
       <c r="E14">
-        <v>0.0807961115354523</v>
+        <v>0.07959904508575555</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2142870476069945</v>
+        <v>0.2358325250933717</v>
       </c>
       <c r="H14">
-        <v>0.1643807477626211</v>
+        <v>0.1642237144636169</v>
       </c>
       <c r="I14">
-        <v>0.005006325590917626</v>
+        <v>0.005045436057359964</v>
       </c>
       <c r="J14">
-        <v>0.1870690260910663</v>
+        <v>0.1682270452335501</v>
       </c>
       <c r="K14">
-        <v>0.1190562735406742</v>
+        <v>0.1141835363929875</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07946051326598716</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02043400163975484</v>
       </c>
       <c r="N14">
-        <v>0.1261934726111136</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1272700385077457</v>
       </c>
       <c r="Q14">
-        <v>0.7966134332428965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7183458099336519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.470057689522662</v>
+        <v>5.467782854310769</v>
       </c>
       <c r="C15">
-        <v>1.298133680333308</v>
+        <v>1.30755849916369</v>
       </c>
       <c r="D15">
-        <v>0.3260435454196084</v>
+        <v>0.3256583742883521</v>
       </c>
       <c r="E15">
-        <v>0.0841349908273461</v>
+        <v>0.08298702174964134</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2055090870845078</v>
+        <v>0.2226034804424799</v>
       </c>
       <c r="H15">
-        <v>0.1767322248015546</v>
+        <v>0.1765954306398214</v>
       </c>
       <c r="I15">
-        <v>0.004891930901808728</v>
+        <v>0.004990246537420084</v>
       </c>
       <c r="J15">
-        <v>0.1831564049895746</v>
+        <v>0.1708321200746781</v>
       </c>
       <c r="K15">
-        <v>0.1182486329381103</v>
+        <v>0.1142534417175729</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07955081315170826</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02008789085461604</v>
       </c>
       <c r="N15">
-        <v>0.1137183950655896</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1147084367156523</v>
       </c>
       <c r="Q15">
-        <v>0.7697742145187334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.701342901102521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.129877243975216</v>
+        <v>5.129288799230551</v>
       </c>
       <c r="C16">
-        <v>1.226121207340441</v>
+        <v>1.237012209487489</v>
       </c>
       <c r="D16">
-        <v>0.3047392644568276</v>
+        <v>0.3044830409096875</v>
       </c>
       <c r="E16">
-        <v>0.08105674466271218</v>
+        <v>0.08015673422107916</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2008466061366363</v>
+        <v>0.1963501840736299</v>
       </c>
       <c r="H16">
-        <v>0.163188465742536</v>
+        <v>0.1631380148465666</v>
       </c>
       <c r="I16">
-        <v>0.003966796465888045</v>
+        <v>0.004235912605355274</v>
       </c>
       <c r="J16">
-        <v>0.184977511570267</v>
+        <v>0.1983067913204124</v>
       </c>
       <c r="K16">
-        <v>0.1265706469014587</v>
+        <v>0.1229805916339712</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08233497624063968</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02236529076919558</v>
       </c>
       <c r="N16">
-        <v>0.1098880016023855</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1112682513560443</v>
       </c>
       <c r="Q16">
-        <v>0.763476198259383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.7216890092217056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.921859175833731</v>
+        <v>4.922097056075302</v>
       </c>
       <c r="C17">
-        <v>1.146886133493155</v>
+        <v>1.162264812237822</v>
       </c>
       <c r="D17">
-        <v>0.2917771455076661</v>
+        <v>0.2915824835243939</v>
       </c>
       <c r="E17">
-        <v>0.0717184408162872</v>
+        <v>0.07086111891464064</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.2144859067872744</v>
+        <v>0.1993146471255542</v>
       </c>
       <c r="H17">
-        <v>0.1249955040893695</v>
+        <v>0.1249790307914367</v>
       </c>
       <c r="I17">
-        <v>0.003537812727667067</v>
+        <v>0.003884040072552608</v>
       </c>
       <c r="J17">
-        <v>0.1948766788486722</v>
+        <v>0.2192535710617562</v>
       </c>
       <c r="K17">
-        <v>0.1367594238650494</v>
+        <v>0.1320557428287792</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08550466058709416</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02527147529892382</v>
       </c>
       <c r="N17">
-        <v>0.1341485049687421</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.136129837968042</v>
       </c>
       <c r="Q17">
-        <v>0.8129756958769292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7757130937814338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.803358644822765</v>
+        <v>4.803915483825733</v>
       </c>
       <c r="C18">
-        <v>1.052596218758111</v>
+        <v>1.076141080450327</v>
       </c>
       <c r="D18">
-        <v>0.2844126053181242</v>
+        <v>0.2842416001641368</v>
       </c>
       <c r="E18">
-        <v>0.06091848803969491</v>
+        <v>0.05975570767289007</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.2478802552718236</v>
+        <v>0.2244111400525455</v>
       </c>
       <c r="H18">
-        <v>0.07209342758206105</v>
+        <v>0.07208801244114937</v>
       </c>
       <c r="I18">
-        <v>0.003158796129369534</v>
+        <v>0.003482938629725929</v>
       </c>
       <c r="J18">
-        <v>0.2140083979883372</v>
+        <v>0.2415758655176674</v>
       </c>
       <c r="K18">
-        <v>0.1524242612756215</v>
+        <v>0.1448776885372336</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.09033137645583444</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02977866794071016</v>
       </c>
       <c r="N18">
-        <v>0.194569830781532</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1976561056648052</v>
       </c>
       <c r="Q18">
-        <v>0.9237462846141682</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8763675948020904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.765031421630624</v>
+        <v>4.765500696838672</v>
       </c>
       <c r="C19">
-        <v>0.9636987891023523</v>
+        <v>0.9971765134363011</v>
       </c>
       <c r="D19">
-        <v>0.2820292134525459</v>
+        <v>0.2818532737147592</v>
       </c>
       <c r="E19">
-        <v>0.05725677113961669</v>
+        <v>0.05519730387749</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.2948681123678725</v>
+        <v>0.2634532538998684</v>
       </c>
       <c r="H19">
-        <v>0.02713470137725693</v>
+        <v>0.02712537771171242</v>
       </c>
       <c r="I19">
-        <v>0.00334858398597504</v>
+        <v>0.003691220532655137</v>
       </c>
       <c r="J19">
-        <v>0.2390237711316701</v>
+        <v>0.2648693711660215</v>
       </c>
       <c r="K19">
-        <v>0.1739464873981085</v>
+        <v>0.1616911867676762</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09674736654935145</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03602397726302975</v>
       </c>
       <c r="N19">
-        <v>0.2946079254748781</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2994045973223649</v>
       </c>
       <c r="Q19">
-        <v>1.07570956073441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.007581908757359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.952785314925165</v>
+        <v>4.952002077113036</v>
       </c>
       <c r="C20">
-        <v>0.8786559130731177</v>
+        <v>0.9275189803077808</v>
       </c>
       <c r="D20">
-        <v>0.293675610389883</v>
+        <v>0.2934149903953198</v>
       </c>
       <c r="E20">
-        <v>0.07187868554570009</v>
+        <v>0.06732087426491074</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3824938549209804</v>
+        <v>0.3453751590041065</v>
       </c>
       <c r="H20">
-        <v>0.002342382369311391</v>
+        <v>0.002261584668015626</v>
       </c>
       <c r="I20">
-        <v>0.004265733884085243</v>
+        <v>0.004520203994470506</v>
       </c>
       <c r="J20">
-        <v>0.2817879513422952</v>
+        <v>0.2892968715159299</v>
       </c>
       <c r="K20">
-        <v>0.2119043903334408</v>
+        <v>0.1887147610451496</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1060339276531437</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0479782299942606</v>
       </c>
       <c r="N20">
-        <v>0.5004422576527929</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5085132460181399</v>
       </c>
       <c r="Q20">
-        <v>1.351138247250674</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.229782009614496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.569577254854153</v>
+        <v>5.565282834200275</v>
       </c>
       <c r="C21">
-        <v>0.9580844706461846</v>
+        <v>1.010499640724049</v>
       </c>
       <c r="D21">
-        <v>0.3322788350703831</v>
+        <v>0.3317569172474748</v>
       </c>
       <c r="E21">
-        <v>0.07724128190944235</v>
+        <v>0.07183126167687703</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4211316100848848</v>
+        <v>0.4402919574525868</v>
       </c>
       <c r="H21">
-        <v>0.004168581608719524</v>
+        <v>0.003836240662872969</v>
       </c>
       <c r="I21">
-        <v>0.00644186647937417</v>
+        <v>0.00634100784287206</v>
       </c>
       <c r="J21">
-        <v>0.2938448964667231</v>
+        <v>0.2198011054031923</v>
       </c>
       <c r="K21">
-        <v>0.2095453501926521</v>
+        <v>0.1759441872498613</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.09852900632975015</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04864152266942234</v>
       </c>
       <c r="N21">
-        <v>0.5776269368308107</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5853688458439734</v>
       </c>
       <c r="Q21">
-        <v>1.45868978644296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.246529354232848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.972888275399157</v>
+        <v>5.96600426145352</v>
       </c>
       <c r="C22">
-        <v>1.011846003336586</v>
+        <v>1.06528742718811</v>
       </c>
       <c r="D22">
-        <v>0.3577550988061091</v>
+        <v>0.3570370372256519</v>
       </c>
       <c r="E22">
-        <v>0.07968623555181331</v>
+        <v>0.07387858442304562</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4452048599197127</v>
+        <v>0.5095597524605893</v>
       </c>
       <c r="H22">
-        <v>0.005646257032624835</v>
+        <v>0.005097638932896609</v>
       </c>
       <c r="I22">
-        <v>0.007874289031889248</v>
+        <v>0.007400845551996049</v>
       </c>
       <c r="J22">
-        <v>0.3011802582178973</v>
+        <v>0.1798668952043201</v>
       </c>
       <c r="K22">
-        <v>0.2075362272710244</v>
+        <v>0.1669717626202392</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09364733199106112</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.04902499067762278</v>
       </c>
       <c r="N22">
-        <v>0.6175087973447546</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6247499467679916</v>
       </c>
       <c r="Q22">
-        <v>1.52533349210637</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.250175737768245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.757696063567664</v>
+        <v>5.752312266337242</v>
       </c>
       <c r="C23">
-        <v>0.979759867649733</v>
+        <v>1.033890026943197</v>
       </c>
       <c r="D23">
-        <v>0.3441382497577763</v>
+        <v>0.3435361059942466</v>
       </c>
       <c r="E23">
-        <v>0.07854773313843033</v>
+        <v>0.07291775005163714</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.434201789433331</v>
+        <v>0.4666398334558863</v>
       </c>
       <c r="H23">
-        <v>0.004838971348513743</v>
+        <v>0.004417299158394561</v>
       </c>
       <c r="I23">
-        <v>0.006810782759826495</v>
+        <v>0.006488529776997431</v>
       </c>
       <c r="J23">
-        <v>0.2982110213869049</v>
+        <v>0.2075713590084618</v>
       </c>
       <c r="K23">
-        <v>0.209738914809769</v>
+        <v>0.1734133000855955</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09675058246788915</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04953554330285392</v>
       </c>
       <c r="N23">
-        <v>0.5957990248592182</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.603489488951837</v>
       </c>
       <c r="Q23">
-        <v>1.495656786225055</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.260864602504085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.94324287381977</v>
+        <v>4.94245706496207</v>
       </c>
       <c r="C24">
-        <v>0.8642515038020804</v>
+        <v>0.9136776367302843</v>
       </c>
       <c r="D24">
-        <v>0.2930786644142245</v>
+        <v>0.2928181479382204</v>
       </c>
       <c r="E24">
-        <v>0.07395750637693865</v>
+        <v>0.06916632315104287</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3911203646143377</v>
+        <v>0.3524526908242507</v>
       </c>
       <c r="H24">
-        <v>0.002299071250693951</v>
+        <v>0.00221674162517338</v>
       </c>
       <c r="I24">
-        <v>0.003822638084293395</v>
+        <v>0.00397595160051889</v>
       </c>
       <c r="J24">
-        <v>0.2863364991213757</v>
+        <v>0.293910794978899</v>
       </c>
       <c r="K24">
-        <v>0.2172399506449345</v>
+        <v>0.1930329451351369</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1076533938516135</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.04960056061678664</v>
       </c>
       <c r="N24">
-        <v>0.514548229402763</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5229006195431509</v>
       </c>
       <c r="Q24">
-        <v>1.378942965708404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.254451828803838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.065368209803239</v>
+        <v>4.067481567187031</v>
       </c>
       <c r="C25">
-        <v>0.7403942712869025</v>
+        <v>0.770911828296704</v>
       </c>
       <c r="D25">
-        <v>0.2389301538379698</v>
+        <v>0.2388615336094375</v>
       </c>
       <c r="E25">
-        <v>0.06897279332708983</v>
+        <v>0.06518403803163864</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.347958816349049</v>
+        <v>0.3103145282643425</v>
       </c>
       <c r="H25">
-        <v>0.0005621916055176257</v>
+        <v>0.000607640009814725</v>
       </c>
       <c r="I25">
-        <v>0.001787363565417088</v>
+        <v>0.002119744665334267</v>
       </c>
       <c r="J25">
-        <v>0.2754631702820944</v>
+        <v>0.2945618019444396</v>
       </c>
       <c r="K25">
-        <v>0.2274664302383123</v>
+        <v>0.2071211654889336</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1175168917308707</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0481193678893348</v>
       </c>
       <c r="N25">
-        <v>0.4273857822159641</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4345782017109627</v>
       </c>
       <c r="Q25">
-        <v>1.26408219742072</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.17339042049602</v>
       </c>
     </row>
   </sheetData>
